--- a/plots/alerts_cdb.xlsx
+++ b/plots/alerts_cdb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VDE/VdE_data_analysis/plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_6A69D6BF8730D14B0B3B2E11595AD0B77C49E24C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8EA9908A-A394-49FF-B64A-9DBB2A1DC3FE}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="114_{FC3E8DE7-5EA6-476C-A864-D5076C36D9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1183FF33-8411-4E3A-9984-74C34ABE1CBC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,11 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +446,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,353 +484,293 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>28.80063933116125</v>
-      </c>
-      <c r="C2">
-        <v>-100</v>
-      </c>
-      <c r="D2">
-        <v>290.64205874707562</v>
-      </c>
-      <c r="E2">
-        <v>-100</v>
-      </c>
-      <c r="F2">
-        <v>3.5018831637150418</v>
-      </c>
-      <c r="G2">
-        <v>1371.4329928814609</v>
-      </c>
-      <c r="H2">
-        <v>-283.43820790334757</v>
-      </c>
-      <c r="I2">
-        <v>93.664202745512142</v>
-      </c>
-      <c r="J2">
-        <v>129.2134831460674</v>
+      <c r="B2" s="2">
+        <v>-41.024919167173209</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>59.201661087334202</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>-58.804851229108991</v>
+      </c>
+      <c r="G2" s="2">
+        <v>297.14003349093531</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-123.36814935351219</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-77.563180604068222</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-59.46154215275876</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>81.082270127584678</v>
-      </c>
-      <c r="C3">
-        <v>59.383701503619832</v>
-      </c>
-      <c r="D3">
-        <v>-11.36458299958348</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
+      <c r="B3" s="2">
+        <v>-25.18073050225528</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-37.662867481820378</v>
+      </c>
+      <c r="D3" s="2">
+        <v>40.119440122447493</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>-63.632762206596013</v>
-      </c>
-      <c r="C4">
-        <v>-3.7017861765467308</v>
-      </c>
-      <c r="D4">
-        <v>-44.093630919978217</v>
-      </c>
-      <c r="E4">
-        <v>-100</v>
-      </c>
-      <c r="F4">
-        <v>460.16546018614281</v>
-      </c>
-      <c r="G4">
-        <v>120.98595428256679</v>
-      </c>
-      <c r="H4">
-        <v>443.76657824933687</v>
-      </c>
-      <c r="I4">
-        <v>-100</v>
-      </c>
-      <c r="J4">
-        <v>12.599197503343721</v>
+      <c r="B4" s="2">
+        <v>-84.33004478378821</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-62.362962302739192</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-58.07080272646953</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>183.9336429656079</v>
+      </c>
+      <c r="G4" s="2">
+        <v>108.1288343558282</v>
+      </c>
+      <c r="H4" s="2">
+        <v>160.47352314823101</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
+        <v>-14.044398898063299</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>-58.385011215199889</v>
-      </c>
-      <c r="C5">
-        <v>-100</v>
-      </c>
-      <c r="D5">
-        <v>-35.396736072031523</v>
-      </c>
-      <c r="E5">
-        <v>-100</v>
-      </c>
-      <c r="F5">
-        <v>307.68245838668372</v>
-      </c>
-      <c r="G5">
-        <v>-99.898141074611672</v>
-      </c>
-      <c r="H5">
-        <v>-51.182197496522953</v>
-      </c>
-      <c r="I5">
-        <v>-100</v>
-      </c>
-      <c r="J5">
-        <v>769.87797045600519</v>
+      <c r="B5" s="2">
+        <v>-56.687509967179693</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>-20.62707217626722</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>-83.771782192410654</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-99.910623517687142</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-82.292433034637867</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <v>152.0772305750215</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>92.14906832298135</v>
-      </c>
-      <c r="C6">
-        <v>-126.1237034191318</v>
-      </c>
-      <c r="D6">
-        <v>16.464803933325339</v>
-      </c>
-      <c r="E6">
-        <v>445.0476096986356</v>
-      </c>
-      <c r="F6">
-        <v>-41.586604446884436</v>
-      </c>
-      <c r="G6">
-        <v>78.285714285714263</v>
-      </c>
-      <c r="H6">
-        <v>-28.571428571428569</v>
-      </c>
-      <c r="I6">
-        <v>-28.551460310453908</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
+      <c r="B6" s="2">
+        <v>-29.258373065837869</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-107.36428990149039</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-23.349176561376439</v>
+      </c>
+      <c r="E6" s="2">
+        <v>183.69422060258671</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-69.543543486237255</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9.0527218576523936</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-45.219805724119183</v>
+      </c>
+      <c r="I6" s="2">
+        <v>46.987777166707112</v>
+      </c>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>28.496273564226211</v>
-      </c>
-      <c r="C7">
-        <v>-103.196211897011</v>
-      </c>
-      <c r="D7">
-        <v>19.418483904465219</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>-100</v>
-      </c>
-      <c r="I7">
-        <v>-100</v>
-      </c>
-      <c r="J7">
-        <v>69.935009889799375</v>
+      <c r="B7" s="2">
+        <v>-72.2921787856381</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-102.7820541316658</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-61.374964442347483</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-105.44897220446541</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-102.01037783207521</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-106.53388652915611</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>-74.498876322285568</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>305.1577130302872</v>
-      </c>
-      <c r="C8">
-        <v>-100</v>
-      </c>
-      <c r="D8">
-        <v>-66.176649252824689</v>
-      </c>
-      <c r="E8">
-        <v>143.3494141971054</v>
-      </c>
-      <c r="F8">
-        <v>-46.97077690662865</v>
-      </c>
-      <c r="G8">
-        <v>633.19651103129809</v>
-      </c>
-      <c r="H8">
-        <v>-33.301251203079893</v>
-      </c>
-      <c r="I8">
-        <v>-100</v>
-      </c>
-      <c r="J8">
-        <v>556.57093124456048</v>
+      <c r="B8" s="2">
+        <v>204.81569253754409</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>-58.27952067223594</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-59.620738730077953</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-60.488582049920339</v>
+      </c>
+      <c r="G8" s="2">
+        <v>357.75973219934491</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-69.858280274015641</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>-14.727141845785919</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>78.735975802764401</v>
-      </c>
-      <c r="C9">
-        <v>-40.101628124027791</v>
-      </c>
-      <c r="D9">
-        <v>-72.883747889418103</v>
-      </c>
-      <c r="E9">
-        <v>-100</v>
-      </c>
-      <c r="F9">
-        <v>306.67800278250121</v>
-      </c>
-      <c r="G9">
-        <v>-75.839293658670144</v>
-      </c>
-      <c r="H9">
-        <v>-43.982216576691023</v>
-      </c>
-      <c r="I9">
-        <v>-100</v>
-      </c>
-      <c r="J9">
-        <v>-63.051232166018167</v>
+      <c r="B9" s="2">
+        <v>-35.034916030694028</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-64.369139661128486</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-65.30275442784901</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>-2.1123474265019331</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-70.986897529502812</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-78.055743884158218</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <v>-85.087541636416319</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
-        <v>372.34420778878763</v>
-      </c>
-      <c r="C10">
-        <v>-100</v>
-      </c>
-      <c r="D10">
-        <v>2.599179206566347</v>
-      </c>
-      <c r="E10">
-        <v>-100</v>
-      </c>
-      <c r="F10">
-        <v>-100</v>
-      </c>
-      <c r="G10">
-        <v>91.022222222222226</v>
-      </c>
-      <c r="H10">
-        <v>-100</v>
-      </c>
-      <c r="I10">
-        <v>-100</v>
-      </c>
-      <c r="J10">
-        <v>340.6757528768465</v>
+      <c r="B10" s="2">
+        <v>82.398945255146401</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>-42.578208970167161</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>-38.049823431907171</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
+        <v>61.019201139808821</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
-        <v>191.38555896292169</v>
-      </c>
-      <c r="C11">
-        <v>-100</v>
-      </c>
-      <c r="D11">
-        <v>-43.30011074197121</v>
-      </c>
-      <c r="E11">
-        <v>-100</v>
-      </c>
-      <c r="F11">
-        <v>82.19565901226801</v>
-      </c>
-      <c r="G11">
-        <v>-1.8390804597701149</v>
-      </c>
-      <c r="H11">
-        <v>-17.087501985072262</v>
-      </c>
-      <c r="I11">
-        <v>65.01362397820165</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
+      <c r="B11" s="2">
+        <v>-17.055664794420299</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>-39.276622600990322</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>-13.62357456031337</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-27.598631422775309</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-35.062189054726367</v>
+      </c>
+      <c r="I11" s="2">
+        <v>17.252824491070971</v>
+      </c>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
-        <v>297.13774597495518</v>
-      </c>
-      <c r="C12">
-        <v>-100</v>
-      </c>
-      <c r="D12">
-        <v>5.3078556263269654</v>
-      </c>
-      <c r="E12">
-        <v>-42.530378842030018</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>-42.726858185134517</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>211.6883116883117</v>
-      </c>
-      <c r="J12">
-        <v>-100</v>
-      </c>
+      <c r="B12" s="2">
+        <v>32.260947274352098</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>20.485829959514181</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-44.858294468947179</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9.4830537487162001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-0.47543581616481778</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45.661157024793418</v>
+      </c>
+      <c r="I12" s="2">
+        <v>-9.0066559946077938</v>
+      </c>
+      <c r="J12" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:J12">
@@ -838,12 +779,13 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plots/alerts_cdb.xlsx
+++ b/plots/alerts_cdb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="114_{FC3E8DE7-5EA6-476C-A864-D5076C36D9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1183FF33-8411-4E3A-9984-74C34ABE1CBC}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="114_{FC3E8DE7-5EA6-476C-A864-D5076C36D9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33F5319E-A3DE-45C4-AA4F-F9AD18B0186A}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,9 +571,7 @@
       <c r="F5" s="2">
         <v>-83.771782192410654</v>
       </c>
-      <c r="G5" s="2">
-        <v>-99.910623517687142</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2">
         <v>-82.292433034637867</v>
       </c>

--- a/plots/alerts_cdb.xlsx
+++ b/plots/alerts_cdb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="114_{FC3E8DE7-5EA6-476C-A864-D5076C36D9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33F5319E-A3DE-45C4-AA4F-F9AD18B0186A}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="114_{051385BF-D3CF-4545-8B77-01216E2E4114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A30A99FA-CE63-4746-9D9A-F8A19423CC7D}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>A1</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>CDB043</t>
+  </si>
+  <si>
+    <t>Bilan</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,27 +488,27 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>-41.024919167173209</v>
+        <v>-31.682522530926871</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>59.201661087334202</v>
+        <v>32.962910532276332</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
-        <v>-58.804851229108991</v>
+        <v>-48.761222212613539</v>
       </c>
       <c r="G2" s="2">
-        <v>297.14003349093531</v>
+        <v>99.521055975372292</v>
       </c>
       <c r="H2" s="2">
-        <v>-123.36814935351219</v>
+        <v>-139.68958475153161</v>
       </c>
       <c r="I2" s="2">
-        <v>-77.563180604068222</v>
+        <v>-69.73951598004804</v>
       </c>
       <c r="J2" s="2">
-        <v>-59.46154215275876</v>
+        <v>-49.440361998596508</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -513,13 +516,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>-25.18073050225528</v>
+        <v>-18.325301969017811</v>
       </c>
       <c r="C3" s="2">
-        <v>-37.662867481820378</v>
+        <v>-28.7133331986164</v>
       </c>
       <c r="D3" s="2">
-        <v>40.119440122447493</v>
+        <v>23.591383137643621</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -533,27 +536,27 @@
         <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>-84.33004478378821</v>
+        <v>-78.202867617092338</v>
       </c>
       <c r="C4" s="2">
-        <v>-62.362962302739192</v>
+        <v>-52.485894376605437</v>
       </c>
       <c r="D4" s="2">
-        <v>-58.07080272646953</v>
+        <v>-48.006444348933549</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2">
-        <v>183.9336429656079</v>
+        <v>76.01605949048664</v>
       </c>
       <c r="G4" s="2">
-        <v>108.1288343558282</v>
+        <v>52.987598647125147</v>
       </c>
       <c r="H4" s="2">
-        <v>160.47352314823101</v>
+        <v>69.699348640539739</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2">
-        <v>-14.044398898063299</v>
+        <v>-9.8227828683494014</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -561,23 +564,25 @@
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>-56.687509967179693</v>
+        <v>-46.596465277662588</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>-20.62707217626722</v>
+        <v>-14.76669363559925</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
-        <v>-83.771782192410654</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>-77.48459756252069</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-99.865995160936365</v>
+      </c>
       <c r="H5" s="2">
-        <v>-82.292433034637867</v>
+        <v>-75.599056276928422</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2">
-        <v>152.0772305750215</v>
+        <v>67.279314369178138</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -585,28 +590,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>-29.258373065837869</v>
+        <v>-21.613501696916959</v>
       </c>
       <c r="C6" s="2">
-        <v>-107.36428990149039</v>
+        <v>-111.4687301192356</v>
       </c>
       <c r="D6" s="2">
-        <v>-23.349176561376439</v>
+        <v>-16.879889436914389</v>
       </c>
       <c r="E6" s="2">
-        <v>183.69422060258671</v>
+        <v>75.954689048688763</v>
       </c>
       <c r="F6" s="2">
-        <v>-69.543543486237255</v>
+        <v>-60.352870592787369</v>
       </c>
       <c r="G6" s="2">
-        <v>9.0527218576523936</v>
+        <v>5.8583673382575974</v>
       </c>
       <c r="H6" s="2">
-        <v>-45.219805724119183</v>
+        <v>-35.497112208929657</v>
       </c>
       <c r="I6" s="2">
-        <v>46.987777166707112</v>
+        <v>27.08324630359084</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -615,27 +620,29 @@
         <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>-72.2921787856381</v>
+        <v>-63.495560582948038</v>
       </c>
       <c r="C7" s="2">
-        <v>-102.7820541316658</v>
+        <v>-104.2319487500237</v>
       </c>
       <c r="D7" s="2">
-        <v>-61.374964442347483</v>
+        <v>-51.440507320548193</v>
       </c>
       <c r="E7" s="2">
-        <v>-105.44897220446541</v>
+        <v>-108.4023799815524</v>
       </c>
       <c r="F7" s="2">
-        <v>-102.01037783207521</v>
+        <v>-103.04618667897159</v>
       </c>
       <c r="G7" s="2">
-        <v>-106.53388652915611</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>-110.1318309629569</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-100</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
-        <v>-74.498876322285568</v>
+        <v>-66.074062166323529</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -643,27 +650,27 @@
         <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>204.81569253754409</v>
+        <v>81.144740769845072</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>-58.27952067223594</v>
+        <v>-48.220590025565073</v>
       </c>
       <c r="E8" s="2">
-        <v>-59.620738730077953</v>
+        <v>-49.605559493861477</v>
       </c>
       <c r="F8" s="2">
-        <v>-60.488582049920339</v>
+        <v>-50.509977827051003</v>
       </c>
       <c r="G8" s="2">
-        <v>357.75973219934491</v>
+        <v>108.7812812751876</v>
       </c>
       <c r="H8" s="2">
-        <v>-69.858280274015641</v>
+        <v>-60.708923490440228</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <v>-14.727141845785919</v>
+        <v>-10.32495130526906</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -671,27 +678,27 @@
         <v>16</v>
       </c>
       <c r="B9" s="2">
-        <v>-35.034916030694028</v>
+        <v>-26.44493040807787</v>
       </c>
       <c r="C9" s="2">
-        <v>-64.369139661128486</v>
+        <v>-54.635576654565767</v>
       </c>
       <c r="D9" s="2">
-        <v>-65.30275442784901</v>
+        <v>-55.648505178364807</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
-        <v>-2.1123474265019331</v>
+        <v>-1.418217511369148</v>
       </c>
       <c r="G9" s="2">
-        <v>-70.986897529502812</v>
+        <v>-61.993743382999469</v>
       </c>
       <c r="H9" s="2">
-        <v>-78.055743884158218</v>
+        <v>-70.33815179557314</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2">
-        <v>-85.087541636416319</v>
+        <v>-79.18344267642901</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -699,21 +706,21 @@
         <v>17</v>
       </c>
       <c r="B10" s="2">
-        <v>82.398945255146401</v>
+        <v>43.095801532699163</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>-42.578208970167161</v>
+        <v>-33.080500916282382</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>-38.049823431907171</v>
+        <v>-29.051191284092351</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2">
-        <v>61.019201139808821</v>
+        <v>33.803853616183922</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -721,24 +728,24 @@
         <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>-17.055664794420299</v>
+        <v>-12.05584468197825</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>-39.276622600990322</v>
+        <v>-30.128961194669991</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
-        <v>-13.62357456031337</v>
+        <v>-9.5144525527172696</v>
       </c>
       <c r="G11" s="2">
-        <v>-27.598631422775309</v>
+        <v>-20.263210546206349</v>
       </c>
       <c r="H11" s="2">
-        <v>-35.062189054726367</v>
+        <v>-26.46824092765598</v>
       </c>
       <c r="I11" s="2">
-        <v>17.252824491070971</v>
+        <v>10.876388267778241</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -747,28 +754,60 @@
         <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>32.260947274352098</v>
+        <v>19.419042495965581</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>20.485829959514181</v>
+        <v>12.784234461849421</v>
       </c>
       <c r="E12" s="2">
-        <v>-44.858294468947179</v>
+        <v>-35.163435452921327</v>
       </c>
       <c r="F12" s="2">
-        <v>9.4830537487162001</v>
+        <v>6.1283185840707954</v>
       </c>
       <c r="G12" s="2">
-        <v>-0.47543581616481778</v>
+        <v>-0.31746031746031739</v>
       </c>
       <c r="H12" s="2">
-        <v>45.661157024793418</v>
+        <v>26.41960549910344</v>
       </c>
       <c r="I12" s="2">
-        <v>-9.0066559946077938</v>
+        <v>-6.1902831663674744</v>
       </c>
       <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-169.38207490470049</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-3351.5969524299312</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-1146.4077416878761</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-3036.7466324437169</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-2520.9576606668788</v>
+      </c>
+      <c r="G13" s="2">
+        <v>527.16561371143644</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-3299.1082223560052</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-3790.841674027015</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-1347.826128814796</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:J12">

--- a/plots/alerts_cdb.xlsx
+++ b/plots/alerts_cdb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="114_{051385BF-D3CF-4545-8B77-01216E2E4114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A30A99FA-CE63-4746-9D9A-F8A19423CC7D}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="114_{A12F11F3-6D73-4152-80F4-9D26CC79F2C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2FEA8CC4-6F44-4FBE-87BA-FE79AC721A2A}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,35 +20,197 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>A1 -12h</t>
+  </si>
+  <si>
+    <t>A1 -6h</t>
+  </si>
+  <si>
+    <t>A1 -3h</t>
+  </si>
   <si>
     <t>A1</t>
   </si>
   <si>
+    <t>A1 3h</t>
+  </si>
+  <si>
+    <t>A1 6h</t>
+  </si>
+  <si>
+    <t>A1 12h</t>
+  </si>
+  <si>
+    <t>A2 -12h</t>
+  </si>
+  <si>
+    <t>A2 -6h</t>
+  </si>
+  <si>
+    <t>A2 -3h</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
+    <t>A2 3h</t>
+  </si>
+  <si>
+    <t>A2 6h</t>
+  </si>
+  <si>
+    <t>A2 12h</t>
+  </si>
+  <si>
+    <t>A3 -12h</t>
+  </si>
+  <si>
+    <t>A3 -6h</t>
+  </si>
+  <si>
+    <t>A3 -3h</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
+    <t>A3 3h</t>
+  </si>
+  <si>
+    <t>A3 6h</t>
+  </si>
+  <si>
+    <t>A3 12h</t>
+  </si>
+  <si>
+    <t>A4 -12h</t>
+  </si>
+  <si>
+    <t>A4 -6h</t>
+  </si>
+  <si>
+    <t>A4 -3h</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
+    <t>A4 3h</t>
+  </si>
+  <si>
+    <t>A4 6h</t>
+  </si>
+  <si>
+    <t>A4 12h</t>
+  </si>
+  <si>
+    <t>A5 -12h</t>
+  </si>
+  <si>
+    <t>A5 -6h</t>
+  </si>
+  <si>
+    <t>A5 -3h</t>
+  </si>
+  <si>
     <t>A5</t>
   </si>
   <si>
+    <t>A5 3h</t>
+  </si>
+  <si>
+    <t>A5 6h</t>
+  </si>
+  <si>
+    <t>A5 12h</t>
+  </si>
+  <si>
+    <t>A6 -12h</t>
+  </si>
+  <si>
+    <t>A6 -6h</t>
+  </si>
+  <si>
+    <t>A6 -3h</t>
+  </si>
+  <si>
     <t>A6</t>
   </si>
   <si>
+    <t>A6 3h</t>
+  </si>
+  <si>
+    <t>A6 6h</t>
+  </si>
+  <si>
+    <t>A6 12h</t>
+  </si>
+  <si>
+    <t>A7 -12h</t>
+  </si>
+  <si>
+    <t>A7 -6h</t>
+  </si>
+  <si>
+    <t>A7 -3h</t>
+  </si>
+  <si>
     <t>A7</t>
   </si>
   <si>
+    <t>A7 3h</t>
+  </si>
+  <si>
+    <t>A7 6h</t>
+  </si>
+  <si>
+    <t>A7 12h</t>
+  </si>
+  <si>
+    <t>A8 -12h</t>
+  </si>
+  <si>
+    <t>A8 -6h</t>
+  </si>
+  <si>
+    <t>A8 -3h</t>
+  </si>
+  <si>
     <t>A8</t>
   </si>
   <si>
+    <t>A8 3h</t>
+  </si>
+  <si>
+    <t>A8 6h</t>
+  </si>
+  <si>
+    <t>A8 12h</t>
+  </si>
+  <si>
+    <t>A9 -12h</t>
+  </si>
+  <si>
+    <t>A9 -6h</t>
+  </si>
+  <si>
+    <t>A9 -3h</t>
+  </si>
+  <si>
     <t>A9</t>
   </si>
   <si>
+    <t>A9 3h</t>
+  </si>
+  <si>
+    <t>A9 6h</t>
+  </si>
+  <si>
+    <t>A9 12h</t>
+  </si>
+  <si>
     <t>CDB002</t>
   </si>
   <si>
@@ -82,7 +244,7 @@
     <t>CDB043</t>
   </si>
   <si>
-    <t>Bilan</t>
+    <t>Bilan en Watt</t>
   </si>
 </sst>
 </file>
@@ -138,12 +300,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,15 +607,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:BL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,335 +643,1890 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>114.8783746020259</v>
+      </c>
+      <c r="C2">
+        <v>11.84340852450635</v>
+      </c>
+      <c r="D2">
+        <v>46.296793729090851</v>
+      </c>
+      <c r="E2">
         <v>-31.682522530926871</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="F2">
+        <v>-14.130725423172031</v>
+      </c>
+      <c r="G2">
+        <v>-26.488747058206989</v>
+      </c>
+      <c r="H2">
+        <v>-28.714658288274091</v>
+      </c>
+      <c r="I2">
+        <v>-100.0111208217596</v>
+      </c>
+      <c r="N2">
+        <v>-100.0731478166947</v>
+      </c>
+      <c r="O2">
+        <v>-100.046137963145</v>
+      </c>
+      <c r="P2">
+        <v>30.27183086742226</v>
+      </c>
+      <c r="Q2">
+        <v>15.53177230673977</v>
+      </c>
+      <c r="R2">
+        <v>49.432749302226888</v>
+      </c>
+      <c r="S2">
         <v>32.962910532276332</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
+      <c r="T2">
+        <v>-28.723802338148531</v>
+      </c>
+      <c r="U2">
+        <v>-22.557834938952212</v>
+      </c>
+      <c r="V2">
+        <v>-27.397291495194288</v>
+      </c>
+      <c r="W2">
+        <v>-100.0100968441844</v>
+      </c>
+      <c r="AA2">
+        <v>-100.09600435954221</v>
+      </c>
+      <c r="AB2">
+        <v>-100.0452319283346</v>
+      </c>
+      <c r="AC2">
+        <v>-100.0326518765759</v>
+      </c>
+      <c r="AD2">
+        <v>20.037668020672552</v>
+      </c>
+      <c r="AE2">
+        <v>-73.162448427887313</v>
+      </c>
+      <c r="AF2">
+        <v>-76.79786190727576</v>
+      </c>
+      <c r="AG2">
         <v>-48.761222212613539</v>
       </c>
-      <c r="G2" s="2">
+      <c r="AH2">
+        <v>-16.117146743341191</v>
+      </c>
+      <c r="AI2">
+        <v>-20.824197133660409</v>
+      </c>
+      <c r="AJ2">
+        <v>-24.078336796596361</v>
+      </c>
+      <c r="AK2">
+        <v>0.77914351878369803</v>
+      </c>
+      <c r="AL2">
+        <v>37.035688283596869</v>
+      </c>
+      <c r="AM2">
+        <v>76.036397790626523</v>
+      </c>
+      <c r="AN2">
         <v>99.521055975372292</v>
       </c>
-      <c r="H2" s="2">
+      <c r="AO2">
+        <v>84.842925714082185</v>
+      </c>
+      <c r="AP2">
+        <v>53.874744595930188</v>
+      </c>
+      <c r="AQ2">
+        <v>4.0771260570361418</v>
+      </c>
+      <c r="AR2">
+        <v>-271.976136658391</v>
+      </c>
+      <c r="AS2">
+        <v>86616.89494133211</v>
+      </c>
+      <c r="AT2">
+        <v>717.87783394550229</v>
+      </c>
+      <c r="AU2">
         <v>-139.68958475153161</v>
       </c>
-      <c r="I2" s="2">
+      <c r="AV2">
+        <v>-100.21614427630441</v>
+      </c>
+      <c r="AW2">
+        <v>-100.12668408084031</v>
+      </c>
+      <c r="AX2">
+        <v>-101.24822832708669</v>
+      </c>
+      <c r="AY2">
+        <v>-72.146527455872246</v>
+      </c>
+      <c r="AZ2">
+        <v>-61.576483661794853</v>
+      </c>
+      <c r="BA2">
+        <v>-68.647157629247246</v>
+      </c>
+      <c r="BB2">
         <v>-69.73951598004804</v>
       </c>
-      <c r="J2" s="2">
+      <c r="BC2">
+        <v>-67.366939097977578</v>
+      </c>
+      <c r="BD2">
+        <v>-58.920706087676422</v>
+      </c>
+      <c r="BE2">
+        <v>-64.859750877951427</v>
+      </c>
+      <c r="BF2">
+        <v>50.527072566866551</v>
+      </c>
+      <c r="BG2">
+        <v>8.7101893345842409</v>
+      </c>
+      <c r="BH2">
+        <v>-20.24632979813406</v>
+      </c>
+      <c r="BI2">
         <v>-49.440361998596508</v>
       </c>
+      <c r="BJ2">
+        <v>-20.326235421113839</v>
+      </c>
+      <c r="BK2">
+        <v>-29.089227642062571</v>
+      </c>
+      <c r="BL2">
+        <v>-39.958143519242768</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>14.483919201196169</v>
+      </c>
+      <c r="C3">
+        <v>-17.164136703250911</v>
+      </c>
+      <c r="D3">
+        <v>0.4166312388402269</v>
+      </c>
+      <c r="E3">
         <v>-18.325301969017811</v>
       </c>
-      <c r="C3" s="2">
+      <c r="F3">
+        <v>30.134778056603441</v>
+      </c>
+      <c r="G3">
+        <v>17.702216816190091</v>
+      </c>
+      <c r="H3">
+        <v>4.4257426298444154</v>
+      </c>
+      <c r="I3">
+        <v>20.17780360177025</v>
+      </c>
+      <c r="J3">
+        <v>11.091057217155511</v>
+      </c>
+      <c r="K3">
+        <v>-1.12159911160465</v>
+      </c>
+      <c r="L3">
         <v>-28.7133331986164</v>
       </c>
-      <c r="D3" s="2">
+      <c r="M3">
+        <v>-28.72521780763287</v>
+      </c>
+      <c r="N3">
+        <v>-34.410393685628179</v>
+      </c>
+      <c r="O3">
+        <v>-22.18385958253042</v>
+      </c>
+      <c r="P3">
+        <v>-6.5104470797297216</v>
+      </c>
+      <c r="Q3">
+        <v>-8.5388671812639529</v>
+      </c>
+      <c r="R3">
+        <v>-12.63031097850263</v>
+      </c>
+      <c r="S3">
         <v>23.591383137643621</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="T3">
+        <v>43.506140552794818</v>
+      </c>
+      <c r="U3">
+        <v>51.009167186433807</v>
+      </c>
+      <c r="V3">
+        <v>49.366317398826318</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>13.32559072576387</v>
+      </c>
+      <c r="C4">
+        <v>-11.34140112372793</v>
+      </c>
+      <c r="D4">
+        <v>-15.1807619781423</v>
+      </c>
+      <c r="E4">
         <v>-78.202867617092338</v>
       </c>
-      <c r="C4" s="2">
+      <c r="F4">
+        <v>7.4089048807919724</v>
+      </c>
+      <c r="G4">
+        <v>-2.4945276548153972</v>
+      </c>
+      <c r="H4">
+        <v>8.6480558233470184</v>
+      </c>
+      <c r="I4">
+        <v>35.839383772237412</v>
+      </c>
+      <c r="J4">
+        <v>27.844772871520529</v>
+      </c>
+      <c r="K4">
+        <v>-24.69401028834972</v>
+      </c>
+      <c r="L4">
         <v>-52.485894376605437</v>
       </c>
-      <c r="D4" s="2">
+      <c r="M4">
+        <v>-59.349067289244353</v>
+      </c>
+      <c r="N4">
+        <v>-73.228176041427261</v>
+      </c>
+      <c r="O4">
+        <v>-62.712919056036178</v>
+      </c>
+      <c r="P4">
+        <v>41.689263873582753</v>
+      </c>
+      <c r="Q4">
+        <v>51.016599159624917</v>
+      </c>
+      <c r="R4">
+        <v>-49.622810434290471</v>
+      </c>
+      <c r="S4">
         <v>-48.006444348933549</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
+      <c r="T4">
+        <v>-4.197893995814483</v>
+      </c>
+      <c r="U4">
+        <v>-3.7506477303126151</v>
+      </c>
+      <c r="V4">
+        <v>-6.5478134027188686</v>
+      </c>
+      <c r="AD4">
+        <v>42.702715209432498</v>
+      </c>
+      <c r="AE4">
+        <v>-7.6869410669170994</v>
+      </c>
+      <c r="AF4">
+        <v>-21.68265770888824</v>
+      </c>
+      <c r="AG4">
         <v>76.01605949048664</v>
       </c>
-      <c r="G4" s="2">
+      <c r="AH4">
+        <v>-25.14619883040934</v>
+      </c>
+      <c r="AI4">
+        <v>-39.118592728527418</v>
+      </c>
+      <c r="AJ4">
+        <v>11.16352910977634</v>
+      </c>
+      <c r="AK4">
+        <v>18.883841243694011</v>
+      </c>
+      <c r="AL4">
+        <v>30.953091384040121</v>
+      </c>
+      <c r="AM4">
+        <v>59.742324125294758</v>
+      </c>
+      <c r="AN4">
         <v>52.987598647125147</v>
       </c>
-      <c r="H4" s="2">
+      <c r="AO4">
+        <v>37.95624947179072</v>
+      </c>
+      <c r="AP4">
+        <v>22.79770034767478</v>
+      </c>
+      <c r="AQ4">
+        <v>10.830341504011161</v>
+      </c>
+      <c r="AR4">
+        <v>0.45824537683158112</v>
+      </c>
+      <c r="AS4">
+        <v>-3.8092245024139109</v>
+      </c>
+      <c r="AT4">
+        <v>-50.305200618539928</v>
+      </c>
+      <c r="AU4">
         <v>69.699348640539739</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
+      <c r="AV4">
+        <v>95.792223457024349</v>
+      </c>
+      <c r="AW4">
+        <v>92.971359598032819</v>
+      </c>
+      <c r="AX4">
+        <v>80.53392294755956</v>
+      </c>
+      <c r="BF4">
+        <v>76.370415303487789</v>
+      </c>
+      <c r="BG4">
+        <v>90.601932689353333</v>
+      </c>
+      <c r="BH4">
+        <v>127.2653227127787</v>
+      </c>
+      <c r="BI4">
         <v>-9.8227828683494014</v>
       </c>
+      <c r="BJ4">
+        <v>61.818485627267428</v>
+      </c>
+      <c r="BK4">
+        <v>38.344944377938042</v>
+      </c>
+      <c r="BL4">
+        <v>29.414376994183058</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>39.252378835844461</v>
+      </c>
+      <c r="C5">
+        <v>1.400692840646655</v>
+      </c>
+      <c r="D5">
+        <v>-14.22709142974024</v>
+      </c>
+      <c r="E5">
         <v>-46.596465277662588</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="F5">
+        <v>-31.952219778999321</v>
+      </c>
+      <c r="G5">
+        <v>-23.813518369128492</v>
+      </c>
+      <c r="H5">
+        <v>-3.2390204122810018</v>
+      </c>
+      <c r="P5">
+        <v>30.296825822188421</v>
+      </c>
+      <c r="Q5">
+        <v>50.329474278767549</v>
+      </c>
+      <c r="R5">
+        <v>41.972069378709243</v>
+      </c>
+      <c r="S5">
         <v>-14.76669363559925</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
+      <c r="T5">
+        <v>-8.9511848497868272</v>
+      </c>
+      <c r="U5">
+        <v>-9.4732943814703869</v>
+      </c>
+      <c r="V5">
+        <v>-6.5433653077848017</v>
+      </c>
+      <c r="AD5">
+        <v>-13.21479028305793</v>
+      </c>
+      <c r="AE5">
+        <v>-20.559513803565579</v>
+      </c>
+      <c r="AF5">
+        <v>-56.055579951069568</v>
+      </c>
+      <c r="AG5">
         <v>-77.48459756252069</v>
       </c>
-      <c r="G5" s="2">
+      <c r="AH5">
+        <v>36.241322628014508</v>
+      </c>
+      <c r="AI5">
+        <v>-7.7828408195017564</v>
+      </c>
+      <c r="AJ5">
+        <v>-13.680141622976601</v>
+      </c>
+      <c r="AK5">
+        <v>-59.268440522530973</v>
+      </c>
+      <c r="AL5">
+        <v>-98.645444024966324</v>
+      </c>
+      <c r="AM5">
+        <v>-99.808940813964981</v>
+      </c>
+      <c r="AN5">
         <v>-99.865995160936365</v>
       </c>
-      <c r="H5" s="2">
+      <c r="AO5">
+        <v>-92.467358882936296</v>
+      </c>
+      <c r="AP5">
+        <v>-68.910408984631118</v>
+      </c>
+      <c r="AQ5">
+        <v>-43.929391206406358</v>
+      </c>
+      <c r="AR5">
+        <v>-85.527603123478102</v>
+      </c>
+      <c r="AS5">
+        <v>-99.79194520553682</v>
+      </c>
+      <c r="AT5">
+        <v>-99.799383208358378</v>
+      </c>
+      <c r="AU5">
         <v>-75.599056276928422</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2">
+      <c r="AV5">
+        <v>-44.030877678459198</v>
+      </c>
+      <c r="AW5">
+        <v>-26.603524964563441</v>
+      </c>
+      <c r="AX5">
+        <v>-25.92827475003417</v>
+      </c>
+      <c r="BF5">
+        <v>78.360369919262411</v>
+      </c>
+      <c r="BG5">
+        <v>102.447718705871</v>
+      </c>
+      <c r="BH5">
+        <v>98.798463466530904</v>
+      </c>
+      <c r="BI5">
         <v>67.279314369178138</v>
       </c>
+      <c r="BJ5">
+        <v>1.9020074386972849</v>
+      </c>
+      <c r="BK5">
+        <v>6.8853407040808836</v>
+      </c>
+      <c r="BL5">
+        <v>-18.175865683064259</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <v>47.264295255741793</v>
+      </c>
+      <c r="C6">
+        <v>32.37214363438521</v>
+      </c>
+      <c r="D6">
+        <v>60.104011887072787</v>
+      </c>
+      <c r="E6">
         <v>-21.613501696916959</v>
       </c>
-      <c r="C6" s="2">
+      <c r="F6">
+        <v>-24.374085073634429</v>
+      </c>
+      <c r="G6">
+        <v>-19.361033734718831</v>
+      </c>
+      <c r="H6">
+        <v>-17.839197543025051</v>
+      </c>
+      <c r="I6">
+        <v>-149.62984278128019</v>
+      </c>
+      <c r="J6">
+        <v>-133.6864982341755</v>
+      </c>
+      <c r="K6">
+        <v>-129.92097724170199</v>
+      </c>
+      <c r="L6">
         <v>-111.4687301192356</v>
       </c>
-      <c r="D6" s="2">
+      <c r="M6">
+        <v>-114.0363402021722</v>
+      </c>
+      <c r="N6">
+        <v>-112.3075654754673</v>
+      </c>
+      <c r="O6">
+        <v>-117.0015077430586</v>
+      </c>
+      <c r="P6">
+        <v>-36.041927815650517</v>
+      </c>
+      <c r="Q6">
+        <v>-44.715299959910517</v>
+      </c>
+      <c r="R6">
+        <v>-44.583087710712419</v>
+      </c>
+      <c r="S6">
         <v>-16.879889436914389</v>
       </c>
-      <c r="E6" s="2">
+      <c r="T6">
+        <v>-48.211511392538583</v>
+      </c>
+      <c r="U6">
+        <v>-28.572835862064029</v>
+      </c>
+      <c r="V6">
+        <v>-14.36870070427544</v>
+      </c>
+      <c r="W6">
+        <v>19.328723048637809</v>
+      </c>
+      <c r="X6">
+        <v>9.637956221980664</v>
+      </c>
+      <c r="Y6">
+        <v>9.378292939936772</v>
+      </c>
+      <c r="Z6">
         <v>75.954689048688763</v>
       </c>
-      <c r="F6" s="2">
+      <c r="AA6">
+        <v>2.8849178281008152</v>
+      </c>
+      <c r="AB6">
+        <v>0.34174345209256429</v>
+      </c>
+      <c r="AC6">
+        <v>-1.1323791634861811</v>
+      </c>
+      <c r="AD6">
+        <v>-45.544396860991419</v>
+      </c>
+      <c r="AE6">
+        <v>-46.884404058431272</v>
+      </c>
+      <c r="AF6">
+        <v>-64.556975311441846</v>
+      </c>
+      <c r="AG6">
         <v>-60.352870592787369</v>
       </c>
-      <c r="G6" s="2">
+      <c r="AH6">
+        <v>-53.816623072905912</v>
+      </c>
+      <c r="AI6">
+        <v>-52.267299949988647</v>
+      </c>
+      <c r="AJ6">
+        <v>-51.483562206433987</v>
+      </c>
+      <c r="AK6">
+        <v>-7.6381247270850814</v>
+      </c>
+      <c r="AL6">
+        <v>-15.077717206978431</v>
+      </c>
+      <c r="AM6">
+        <v>-3.116609347898899</v>
+      </c>
+      <c r="AN6">
         <v>5.8583673382575974</v>
       </c>
-      <c r="H6" s="2">
+      <c r="AO6">
+        <v>-11.621806103577629</v>
+      </c>
+      <c r="AP6">
+        <v>-4.9658059269726538</v>
+      </c>
+      <c r="AQ6">
+        <v>-1.869174445089232</v>
+      </c>
+      <c r="AR6">
+        <v>-41.031025077723079</v>
+      </c>
+      <c r="AS6">
+        <v>-43.498432416043023</v>
+      </c>
+      <c r="AT6">
+        <v>-50.324643544650733</v>
+      </c>
+      <c r="AU6">
         <v>-35.497112208929657</v>
       </c>
-      <c r="I6" s="2">
+      <c r="AV6">
+        <v>7.6702352794721786</v>
+      </c>
+      <c r="AW6">
+        <v>10.76640703120886</v>
+      </c>
+      <c r="AX6">
+        <v>7.8115296060808097</v>
+      </c>
+      <c r="AY6">
+        <v>-2.8159553139085158</v>
+      </c>
+      <c r="AZ6">
+        <v>-2.7411712407482169</v>
+      </c>
+      <c r="BA6">
+        <v>4.1180323778034298</v>
+      </c>
+      <c r="BB6">
         <v>27.08324630359084</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="BC6">
+        <v>19.783393501805069</v>
+      </c>
+      <c r="BD6">
+        <v>27.742316811333939</v>
+      </c>
+      <c r="BE6">
+        <v>44.924705234960363</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <v>23.079029019894151</v>
+      </c>
+      <c r="C7">
+        <v>17.097392597869248</v>
+      </c>
+      <c r="D7">
+        <v>0.42768950902793929</v>
+      </c>
+      <c r="E7">
         <v>-63.495560582948038</v>
       </c>
-      <c r="C7" s="2">
+      <c r="F7">
+        <v>-41.604888826647723</v>
+      </c>
+      <c r="G7">
+        <v>-32.007585229994049</v>
+      </c>
+      <c r="H7">
+        <v>-28.237552178114779</v>
+      </c>
+      <c r="I7">
+        <v>-109.029161433585</v>
+      </c>
+      <c r="J7">
+        <v>-105.4093735937879</v>
+      </c>
+      <c r="K7">
+        <v>-104.6989438473408</v>
+      </c>
+      <c r="L7">
         <v>-104.2319487500237</v>
       </c>
-      <c r="D7" s="2">
+      <c r="M7">
+        <v>-108.8968592456563</v>
+      </c>
+      <c r="N7">
+        <v>-108.9477436522714</v>
+      </c>
+      <c r="O7">
+        <v>-110.8270033059476</v>
+      </c>
+      <c r="P7">
+        <v>-23.217831991831819</v>
+      </c>
+      <c r="Q7">
+        <v>-41.216262924521772</v>
+      </c>
+      <c r="R7">
+        <v>-38.523662557411001</v>
+      </c>
+      <c r="S7">
         <v>-51.440507320548193</v>
       </c>
-      <c r="E7" s="2">
+      <c r="T7">
+        <v>-46.563703390654503</v>
+      </c>
+      <c r="U7">
+        <v>-44.4303202921772</v>
+      </c>
+      <c r="V7">
+        <v>-22.40250539011177</v>
+      </c>
+      <c r="W7">
+        <v>-107.36214576382351</v>
+      </c>
+      <c r="X7">
+        <v>-108.42379425907041</v>
+      </c>
+      <c r="Y7">
+        <v>-109.7551444169661</v>
+      </c>
+      <c r="Z7">
         <v>-108.4023799815524</v>
       </c>
-      <c r="F7" s="2">
+      <c r="AA7">
+        <v>-110.9878085476944</v>
+      </c>
+      <c r="AB7">
+        <v>-109.71137298155141</v>
+      </c>
+      <c r="AC7">
+        <v>-107.996265735881</v>
+      </c>
+      <c r="AD7">
+        <v>-109.71638380578069</v>
+      </c>
+      <c r="AE7">
+        <v>-110.5931509415916</v>
+      </c>
+      <c r="AF7">
+        <v>-110.6539621412694</v>
+      </c>
+      <c r="AG7">
         <v>-103.04618667897159</v>
       </c>
-      <c r="G7" s="2">
+      <c r="AH7">
+        <v>-102.4428499140156</v>
+      </c>
+      <c r="AI7">
+        <v>-104.42956094111599</v>
+      </c>
+      <c r="AJ7">
+        <v>-107.2800970814302</v>
+      </c>
+      <c r="AK7">
+        <v>-118.40084009465259</v>
+      </c>
+      <c r="AL7">
+        <v>-114.83677507773891</v>
+      </c>
+      <c r="AM7">
+        <v>-121.50168153238781</v>
+      </c>
+      <c r="AN7">
         <v>-110.1318309629569</v>
       </c>
-      <c r="H7" s="2">
-        <v>-100</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
+      <c r="AO7">
+        <v>-112.5102793885082</v>
+      </c>
+      <c r="AP7">
+        <v>-111.2693903378598</v>
+      </c>
+      <c r="AQ7">
+        <v>-115.7816177532666</v>
+      </c>
+      <c r="BF7">
+        <v>-29.582706182160969</v>
+      </c>
+      <c r="BG7">
+        <v>-30.294393907729471</v>
+      </c>
+      <c r="BH7">
+        <v>-39.485012566605818</v>
+      </c>
+      <c r="BI7">
         <v>-66.074062166323529</v>
       </c>
+      <c r="BJ7">
+        <v>-63.769181873753368</v>
+      </c>
+      <c r="BK7">
+        <v>-54.412135499099278</v>
+      </c>
+      <c r="BL7">
+        <v>-42.763214352495751</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
+        <v>69</v>
+      </c>
+      <c r="B8">
+        <v>89.479824596693092</v>
+      </c>
+      <c r="C8">
+        <v>91.367008324367191</v>
+      </c>
+      <c r="D8">
+        <v>122.1809268902918</v>
+      </c>
+      <c r="E8">
         <v>81.144740769845072</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="F8">
+        <v>-59.823470557313293</v>
+      </c>
+      <c r="G8">
+        <v>-57.325589348000591</v>
+      </c>
+      <c r="H8">
+        <v>-35.343205742603708</v>
+      </c>
+      <c r="P8">
+        <v>-31.919443263496749</v>
+      </c>
+      <c r="Q8">
+        <v>-35.853043390823203</v>
+      </c>
+      <c r="R8">
+        <v>-52.293770195895142</v>
+      </c>
+      <c r="S8">
         <v>-48.220590025565073</v>
       </c>
-      <c r="E8" s="2">
+      <c r="T8">
+        <v>-48.934517773431267</v>
+      </c>
+      <c r="U8">
+        <v>-15.48674280207225</v>
+      </c>
+      <c r="V8">
+        <v>-16.10896945120929</v>
+      </c>
+      <c r="W8">
+        <v>64.496384169888728</v>
+      </c>
+      <c r="X8">
+        <v>40.222461835310128</v>
+      </c>
+      <c r="Y8">
+        <v>-12.004677955136421</v>
+      </c>
+      <c r="Z8">
         <v>-49.605559493861477</v>
       </c>
-      <c r="F8" s="2">
+      <c r="AA8">
+        <v>-51.073633150266083</v>
+      </c>
+      <c r="AB8">
+        <v>32.971083280414263</v>
+      </c>
+      <c r="AC8">
+        <v>22.568104415296219</v>
+      </c>
+      <c r="AD8">
+        <v>4.0389139036877104</v>
+      </c>
+      <c r="AE8">
+        <v>-16.141269237468379</v>
+      </c>
+      <c r="AF8">
+        <v>-15.0225301349316</v>
+      </c>
+      <c r="AG8">
         <v>-50.509977827051003</v>
       </c>
-      <c r="G8" s="2">
+      <c r="AH8">
+        <v>-53.08116906959097</v>
+      </c>
+      <c r="AI8">
+        <v>-52.697765343206058</v>
+      </c>
+      <c r="AJ8">
+        <v>-57.163033847361334</v>
+      </c>
+      <c r="AK8">
+        <v>-25.306290742720108</v>
+      </c>
+      <c r="AL8">
+        <v>-39.270096851439988</v>
+      </c>
+      <c r="AM8">
+        <v>-41.921154415657838</v>
+      </c>
+      <c r="AN8">
         <v>108.7812812751876</v>
       </c>
-      <c r="H8" s="2">
+      <c r="AO8">
+        <v>-51.522234427192053</v>
+      </c>
+      <c r="AP8">
+        <v>-11.27059895086612</v>
+      </c>
+      <c r="AQ8">
+        <v>10.20658922628845</v>
+      </c>
+      <c r="AR8">
+        <v>51.753401047906117</v>
+      </c>
+      <c r="AS8">
+        <v>78.324549416345533</v>
+      </c>
+      <c r="AT8">
+        <v>4.6305068687825646</v>
+      </c>
+      <c r="AU8">
         <v>-60.708923490440228</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
+      <c r="AV8">
+        <v>-56.204207043252183</v>
+      </c>
+      <c r="AW8">
+        <v>-46.392118202911803</v>
+      </c>
+      <c r="AX8">
+        <v>-35.034195241737777</v>
+      </c>
+      <c r="BF8">
+        <v>32.690204825503891</v>
+      </c>
+      <c r="BG8">
+        <v>1.733327418261092</v>
+      </c>
+      <c r="BH8">
+        <v>20.221213840045358</v>
+      </c>
+      <c r="BI8">
         <v>-10.32495130526906</v>
       </c>
+      <c r="BJ8">
+        <v>-17.591626250844119</v>
+      </c>
+      <c r="BK8">
+        <v>-20.931013209464361</v>
+      </c>
+      <c r="BL8">
+        <v>-18.20465252795881</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>79.026132100260526</v>
+      </c>
+      <c r="C9">
+        <v>99.630859193561776</v>
+      </c>
+      <c r="D9">
+        <v>97.126256959129947</v>
+      </c>
+      <c r="E9">
         <v>-26.44493040807787</v>
       </c>
-      <c r="C9" s="2">
+      <c r="F9">
+        <v>-23.27638328772758</v>
+      </c>
+      <c r="G9">
+        <v>-25.498169272900569</v>
+      </c>
+      <c r="H9">
+        <v>-5.8644964649225138</v>
+      </c>
+      <c r="I9">
+        <v>80.058528266051681</v>
+      </c>
+      <c r="J9">
+        <v>85.927950939930952</v>
+      </c>
+      <c r="K9">
+        <v>91.719650195945079</v>
+      </c>
+      <c r="L9">
         <v>-54.635576654565767</v>
       </c>
-      <c r="D9" s="2">
+      <c r="M9">
+        <v>17.24378031539629</v>
+      </c>
+      <c r="N9">
+        <v>15.212212302445071</v>
+      </c>
+      <c r="O9">
+        <v>13.01898270149459</v>
+      </c>
+      <c r="P9">
+        <v>-7.3743002584716697</v>
+      </c>
+      <c r="Q9">
+        <v>-30.734742934859959</v>
+      </c>
+      <c r="R9">
+        <v>-39.398726631056853</v>
+      </c>
+      <c r="S9">
         <v>-55.648505178364807</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
+      <c r="T9">
+        <v>-1.5748164830791871</v>
+      </c>
+      <c r="U9">
+        <v>1.7180851476308081</v>
+      </c>
+      <c r="V9">
+        <v>8.5148350722994213</v>
+      </c>
+      <c r="AD9">
+        <v>-12.998559928434631</v>
+      </c>
+      <c r="AE9">
+        <v>-10.54386772624458</v>
+      </c>
+      <c r="AF9">
+        <v>-23.256445606280192</v>
+      </c>
+      <c r="AG9">
         <v>-1.418217511369148</v>
       </c>
-      <c r="G9" s="2">
+      <c r="AH9">
+        <v>-14.23896069893496</v>
+      </c>
+      <c r="AI9">
+        <v>-26.204165158863852</v>
+      </c>
+      <c r="AJ9">
+        <v>-32.483078773417873</v>
+      </c>
+      <c r="AK9">
+        <v>-43.799182739662037</v>
+      </c>
+      <c r="AL9">
+        <v>-57.145003445159738</v>
+      </c>
+      <c r="AM9">
+        <v>-63.281889054125507</v>
+      </c>
+      <c r="AN9">
         <v>-61.993743382999469</v>
       </c>
-      <c r="H9" s="2">
+      <c r="AO9">
+        <v>-74.465109138773116</v>
+      </c>
+      <c r="AP9">
+        <v>-66.661087767245675</v>
+      </c>
+      <c r="AQ9">
+        <v>-9.2346102863784267</v>
+      </c>
+      <c r="AR9">
+        <v>-43.092791197864202</v>
+      </c>
+      <c r="AS9">
+        <v>-56.901949043086617</v>
+      </c>
+      <c r="AT9">
+        <v>-57.555341674687178</v>
+      </c>
+      <c r="AU9">
         <v>-70.33815179557314</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
+      <c r="AV9">
+        <v>-64.095686737771672</v>
+      </c>
+      <c r="AW9">
+        <v>-45.689201681316057</v>
+      </c>
+      <c r="AX9">
+        <v>-36.965521889764702</v>
+      </c>
+      <c r="BF9">
+        <v>-25.76711838670904</v>
+      </c>
+      <c r="BG9">
+        <v>-42.706041365436597</v>
+      </c>
+      <c r="BH9">
+        <v>-35.070928247689693</v>
+      </c>
+      <c r="BI9">
         <v>-79.18344267642901</v>
       </c>
+      <c r="BJ9">
+        <v>-74.460874975788442</v>
+      </c>
+      <c r="BK9">
+        <v>-61.420516449179743</v>
+      </c>
+      <c r="BL9">
+        <v>-49.128387140809501</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
+        <v>71</v>
+      </c>
+      <c r="B10">
+        <v>38.736895516036391</v>
+      </c>
+      <c r="C10">
+        <v>0.49611606348704013</v>
+      </c>
+      <c r="D10">
+        <v>-25.765448135090001</v>
+      </c>
+      <c r="E10">
         <v>43.095801532699163</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="F10">
+        <v>69.337488319854188</v>
+      </c>
+      <c r="G10">
+        <v>52.231276627943522</v>
+      </c>
+      <c r="H10">
+        <v>42.695811944023042</v>
+      </c>
+      <c r="P10">
+        <v>5.7033528133393734</v>
+      </c>
+      <c r="Q10">
+        <v>13.83949131841662</v>
+      </c>
+      <c r="R10">
+        <v>-54.152650051553373</v>
+      </c>
+      <c r="S10">
         <v>-33.080500916282382</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="T10">
+        <v>9.0419524602814505</v>
+      </c>
+      <c r="U10">
+        <v>1.008861199567133</v>
+      </c>
+      <c r="V10">
+        <v>1.528303460229554</v>
+      </c>
+      <c r="AK10">
+        <v>0.47088968741442871</v>
+      </c>
+      <c r="AL10">
+        <v>-37.672002284750647</v>
+      </c>
+      <c r="AM10">
+        <v>-32.890378098465533</v>
+      </c>
+      <c r="AN10">
         <v>-29.051191284092351</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2">
+      <c r="AO10">
+        <v>-31.938737334614562</v>
+      </c>
+      <c r="AP10">
+        <v>7.1006954351623239</v>
+      </c>
+      <c r="AQ10">
+        <v>-4.1485633024806852</v>
+      </c>
+      <c r="BF10">
+        <v>77.611120050220165</v>
+      </c>
+      <c r="BG10">
+        <v>101.03414017341041</v>
+      </c>
+      <c r="BH10">
+        <v>109.6629771925811</v>
+      </c>
+      <c r="BI10">
         <v>33.803853616183922</v>
       </c>
+      <c r="BJ10">
+        <v>10.160106340252529</v>
+      </c>
+      <c r="BK10">
+        <v>8.6210151906700823</v>
+      </c>
+      <c r="BL10">
+        <v>-19.359153057196039</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2">
+        <v>72</v>
+      </c>
+      <c r="B11">
+        <v>34.526015813442363</v>
+      </c>
+      <c r="C11">
+        <v>41.776323214084186</v>
+      </c>
+      <c r="D11">
+        <v>51.874702113011693</v>
+      </c>
+      <c r="E11">
         <v>-12.05584468197825</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="F11">
+        <v>-4.8581537050383394</v>
+      </c>
+      <c r="G11">
+        <v>-4.2998235698156257</v>
+      </c>
+      <c r="H11">
+        <v>-7.3544917901087663</v>
+      </c>
+      <c r="P11">
+        <v>23.225452810685809</v>
+      </c>
+      <c r="Q11">
+        <v>25.198291641244669</v>
+      </c>
+      <c r="R11">
+        <v>48.320539158567982</v>
+      </c>
+      <c r="S11">
         <v>-30.128961194669991</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
+      <c r="T11">
+        <v>-19.207811736502372</v>
+      </c>
+      <c r="U11">
+        <v>-11.5773427541406</v>
+      </c>
+      <c r="V11">
+        <v>-9.384670855555127</v>
+      </c>
+      <c r="AD11">
+        <v>4.9505430739261058</v>
+      </c>
+      <c r="AE11">
+        <v>0.66964114078323456</v>
+      </c>
+      <c r="AF11">
+        <v>3.0385159881232102</v>
+      </c>
+      <c r="AG11">
         <v>-9.5144525527172696</v>
       </c>
-      <c r="G11" s="2">
+      <c r="AH11">
+        <v>-4.8047054763000512</v>
+      </c>
+      <c r="AI11">
+        <v>3.0088424476955149</v>
+      </c>
+      <c r="AJ11">
+        <v>-7.2633619205734261</v>
+      </c>
+      <c r="AK11">
+        <v>-12.62446000227367</v>
+      </c>
+      <c r="AL11">
+        <v>-18.866675246559009</v>
+      </c>
+      <c r="AM11">
+        <v>-16.673598140852601</v>
+      </c>
+      <c r="AN11">
         <v>-20.263210546206349</v>
       </c>
-      <c r="H11" s="2">
+      <c r="AO11">
+        <v>9.2338633385422941</v>
+      </c>
+      <c r="AP11">
+        <v>3.822119862491749</v>
+      </c>
+      <c r="AQ11">
+        <v>2.803304954685836</v>
+      </c>
+      <c r="AR11">
+        <v>-9.5920330327298196</v>
+      </c>
+      <c r="AS11">
+        <v>-5.6656676122070886</v>
+      </c>
+      <c r="AT11">
+        <v>-3.2376273685893802</v>
+      </c>
+      <c r="AU11">
         <v>-26.46824092765598</v>
       </c>
-      <c r="I11" s="2">
+      <c r="AV11">
+        <v>0.31151003167899111</v>
+      </c>
+      <c r="AW11">
+        <v>-4.209766456139759</v>
+      </c>
+      <c r="AX11">
+        <v>-1.568134630095062</v>
+      </c>
+      <c r="AY11">
+        <v>-2.0231462251314092</v>
+      </c>
+      <c r="AZ11">
+        <v>0.47697801230698272</v>
+      </c>
+      <c r="BA11">
+        <v>-0.71207310960014403</v>
+      </c>
+      <c r="BB11">
         <v>10.876388267778241</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="BC11">
+        <v>39.614614614614617</v>
+      </c>
+      <c r="BD11">
+        <v>46.743219164521868</v>
+      </c>
+      <c r="BE11">
+        <v>60.823175336319203</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2">
+        <v>73</v>
+      </c>
+      <c r="B12">
+        <v>57.564423595042634</v>
+      </c>
+      <c r="C12">
+        <v>57.579410839710633</v>
+      </c>
+      <c r="D12">
+        <v>62.379580891846253</v>
+      </c>
+      <c r="E12">
         <v>19.419042495965581</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="F12">
+        <v>-8.709037945475286</v>
+      </c>
+      <c r="G12">
+        <v>-8.5031264622059624</v>
+      </c>
+      <c r="H12">
+        <v>-6.6918001885014107</v>
+      </c>
+      <c r="P12">
+        <v>30.385040741352789</v>
+      </c>
+      <c r="Q12">
+        <v>59.093129150373599</v>
+      </c>
+      <c r="R12">
+        <v>84.073726541554933</v>
+      </c>
+      <c r="S12">
         <v>12.784234461849421</v>
       </c>
-      <c r="E12" s="2">
+      <c r="T12">
+        <v>-28.186149060986651</v>
+      </c>
+      <c r="U12">
+        <v>-21.35957147655018</v>
+      </c>
+      <c r="V12">
+        <v>-10.02706623792513</v>
+      </c>
+      <c r="W12">
+        <v>-57.765220561429103</v>
+      </c>
+      <c r="X12">
+        <v>-20.799863271235701</v>
+      </c>
+      <c r="Y12">
+        <v>2.2260718925941858</v>
+      </c>
+      <c r="Z12">
         <v>-35.163435452921327</v>
       </c>
-      <c r="F12" s="2">
+      <c r="AA12">
+        <v>-4.2887193494709637</v>
+      </c>
+      <c r="AB12">
+        <v>-6.0675781027172002</v>
+      </c>
+      <c r="AC12">
+        <v>-2.8056976552303672</v>
+      </c>
+      <c r="AD12">
+        <v>4.0185695633251193</v>
+      </c>
+      <c r="AE12">
+        <v>-2.5547897148045591</v>
+      </c>
+      <c r="AF12">
+        <v>-3.0842860941239092</v>
+      </c>
+      <c r="AG12">
         <v>6.1283185840707954</v>
       </c>
-      <c r="G12" s="2">
+      <c r="AH12">
+        <v>-10.043106708008789</v>
+      </c>
+      <c r="AI12">
+        <v>-3.59944014577336</v>
+      </c>
+      <c r="AJ12">
+        <v>-5.5268818963331494</v>
+      </c>
+      <c r="AK12">
+        <v>6.2572550209119591</v>
+      </c>
+      <c r="AL12">
+        <v>7.3422785232102648</v>
+      </c>
+      <c r="AM12">
+        <v>10.04789839082936</v>
+      </c>
+      <c r="AN12">
         <v>-0.31746031746031739</v>
       </c>
-      <c r="H12" s="2">
+      <c r="AO12">
+        <v>-3.1593406593406592</v>
+      </c>
+      <c r="AP12">
+        <v>-13.38131850155407</v>
+      </c>
+      <c r="AQ12">
+        <v>-16.51765874420262</v>
+      </c>
+      <c r="AR12">
+        <v>-22.288807268509579</v>
+      </c>
+      <c r="AS12">
+        <v>-20.13053933356235</v>
+      </c>
+      <c r="AT12">
+        <v>-24.391520544360109</v>
+      </c>
+      <c r="AU12">
         <v>26.41960549910344</v>
       </c>
-      <c r="I12" s="2">
+      <c r="AV12">
+        <v>7.6488989756486578</v>
+      </c>
+      <c r="AW12">
+        <v>36.718616201404352</v>
+      </c>
+      <c r="AX12">
+        <v>49.219458152885501</v>
+      </c>
+      <c r="AY12">
+        <v>-69.39649980210288</v>
+      </c>
+      <c r="AZ12">
+        <v>-42.262552148434317</v>
+      </c>
+      <c r="BA12">
+        <v>-9.542217700915554</v>
+      </c>
+      <c r="BB12">
         <v>-6.1902831663674744</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="BC12">
+        <v>-16.05579868708972</v>
+      </c>
+      <c r="BD12">
+        <v>2.561319730844382</v>
+      </c>
+      <c r="BE12">
+        <v>1.37718909332742</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2">
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <v>2066.0790046758789</v>
+      </c>
+      <c r="C13">
+        <v>1090.813377594628</v>
+      </c>
+      <c r="D13">
+        <v>1589.946598925766</v>
+      </c>
+      <c r="E13">
         <v>-169.38207490470049</v>
       </c>
-      <c r="C13" s="2">
+      <c r="F13">
+        <v>122.2110754192902</v>
+      </c>
+      <c r="G13">
+        <v>-238.98161044973739</v>
+      </c>
+      <c r="H13">
+        <v>-179.8878755019941</v>
+      </c>
+      <c r="I13">
+        <v>-630.37719166694842</v>
+      </c>
+      <c r="J13">
+        <v>-733.52738160391004</v>
+      </c>
+      <c r="K13">
+        <v>-726.08468122524198</v>
+      </c>
+      <c r="L13">
         <v>-3351.5969524299312</v>
       </c>
-      <c r="D13" s="2">
+      <c r="M13">
+        <v>-2896.6422563079632</v>
+      </c>
+      <c r="N13">
+        <v>-3360.8832853400031</v>
+      </c>
+      <c r="O13">
+        <v>-2517.1481930920158</v>
+      </c>
+      <c r="P13">
+        <v>563.33140572342393</v>
+      </c>
+      <c r="Q13">
+        <v>594.58484640937786</v>
+      </c>
+      <c r="R13">
+        <v>218.51620800495809</v>
+      </c>
+      <c r="S13">
         <v>-1146.4077416878761</v>
       </c>
-      <c r="E13" s="2">
+      <c r="T13">
+        <v>-661.20777145996635</v>
+      </c>
+      <c r="U13">
+        <v>-370.56458045743392</v>
+      </c>
+      <c r="V13">
+        <v>-99.856383431658756</v>
+      </c>
+      <c r="W13">
+        <v>-1832.76426689043</v>
+      </c>
+      <c r="X13">
+        <v>-1746.2411253619071</v>
+      </c>
+      <c r="Y13">
+        <v>-1759.22318885397</v>
+      </c>
+      <c r="Z13">
         <v>-3036.7466324437169</v>
       </c>
-      <c r="F13" s="2">
+      <c r="AA13">
+        <v>-3222.3083346181938</v>
+      </c>
+      <c r="AB13">
+        <v>-2403.8979826440318</v>
+      </c>
+      <c r="AC13">
+        <v>-2064.5847945548858</v>
+      </c>
+      <c r="AD13">
+        <v>-549.5730395276596</v>
+      </c>
+      <c r="AE13">
+        <v>-1450.438364793139</v>
+      </c>
+      <c r="AF13">
+        <v>-2004.681409269605</v>
+      </c>
+      <c r="AG13">
         <v>-2520.9576606668788</v>
       </c>
-      <c r="G13" s="2">
+      <c r="AH13">
+        <v>-2089.8928017179578</v>
+      </c>
+      <c r="AI13">
+        <v>-2401.07661346755</v>
+      </c>
+      <c r="AJ13">
+        <v>-2149.9482843601968</v>
+      </c>
+      <c r="AK13">
+        <v>-1152.999919273037</v>
+      </c>
+      <c r="AL13">
+        <v>-1276.068251007106</v>
+      </c>
+      <c r="AM13">
+        <v>-651.63602503769891</v>
+      </c>
+      <c r="AN13">
         <v>527.16561371143644</v>
       </c>
-      <c r="H13" s="2">
+      <c r="AO13">
+        <v>-1263.05059999695</v>
+      </c>
+      <c r="AP13">
+        <v>-1062.007305681122</v>
+      </c>
+      <c r="AQ13">
+        <v>-796.57517944202846</v>
+      </c>
+      <c r="AR13">
+        <v>-2357.0492133994749</v>
+      </c>
+      <c r="AS13">
+        <v>-2495.8367251908371</v>
+      </c>
+      <c r="AT13">
+        <v>-3383.5284513060551</v>
+      </c>
+      <c r="AU13">
         <v>-3299.1082223560052</v>
       </c>
-      <c r="I13" s="2">
+      <c r="AV13">
+        <v>-1655.3616322208291</v>
+      </c>
+      <c r="AW13">
+        <v>-1190.0129599834211</v>
+      </c>
+      <c r="AX13">
+        <v>-1249.534090028802</v>
+      </c>
+      <c r="AY13">
+        <v>-3006.899379549543</v>
+      </c>
+      <c r="AZ13">
+        <v>-2886.9474969033981</v>
+      </c>
+      <c r="BA13">
+        <v>-2503.7175912307721</v>
+      </c>
+      <c r="BB13">
         <v>-3790.841674027015</v>
       </c>
-      <c r="J13" s="2">
+      <c r="BC13">
+        <v>-2328.678312287811</v>
+      </c>
+      <c r="BD13">
+        <v>-1685.073659110783</v>
+      </c>
+      <c r="BE13">
+        <v>-1606.8474086653141</v>
+      </c>
+      <c r="BF13">
+        <v>285.57452387513001</v>
+      </c>
+      <c r="BG13">
+        <v>127.48918290752989</v>
+      </c>
+      <c r="BH13">
+        <v>278.44749851947131</v>
+      </c>
+      <c r="BI13">
         <v>-1347.826128814796</v>
+      </c>
+      <c r="BJ13">
+        <v>-1140.950196727468</v>
+      </c>
+      <c r="BK13">
+        <v>-967.84924766779761</v>
+      </c>
+      <c r="BL13">
+        <v>-1126.5766488430211</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:J12">
+  <conditionalFormatting sqref="B2:BL13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -823,6 +2539,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plots/alerts_cdb.xlsx
+++ b/plots/alerts_cdb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="114_{A12F11F3-6D73-4152-80F4-9D26CC79F2C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2FEA8CC4-6F44-4FBE-87BA-FE79AC721A2A}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_387955BE8760D36607DA2511595ED87656CD2798" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5B9C7E8-5D31-450F-A565-A326AD188BAD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,7 +244,7 @@
     <t>CDB043</t>
   </si>
   <si>
-    <t>Bilan en Watt</t>
+    <t>Bilan en kWh</t>
   </si>
 </sst>
 </file>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10:AJ10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BF3" sqref="BF3:BL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,13 +811,13 @@
         <v>63</v>
       </c>
       <c r="B2">
-        <v>114.8783746020259</v>
+        <v>43.252249734683943</v>
       </c>
       <c r="C2">
-        <v>11.84340852450635</v>
+        <v>-25.437727650329101</v>
       </c>
       <c r="D2">
-        <v>46.296793729090851</v>
+        <v>-2.4688041806060941</v>
       </c>
       <c r="E2">
         <v>-31.682522530926871</v>
@@ -831,15 +831,6 @@
       <c r="H2">
         <v>-28.714658288274091</v>
       </c>
-      <c r="I2">
-        <v>-100.0111208217596</v>
-      </c>
-      <c r="N2">
-        <v>-100.0731478166947</v>
-      </c>
-      <c r="O2">
-        <v>-100.046137963145</v>
-      </c>
       <c r="P2">
         <v>30.27183086742226</v>
       </c>
@@ -861,18 +852,6 @@
       <c r="V2">
         <v>-27.397291495194288</v>
       </c>
-      <c r="W2">
-        <v>-100.0100968441844</v>
-      </c>
-      <c r="AA2">
-        <v>-100.09600435954221</v>
-      </c>
-      <c r="AB2">
-        <v>-100.0452319283346</v>
-      </c>
-      <c r="AC2">
-        <v>-100.0326518765759</v>
-      </c>
       <c r="AD2">
         <v>20.037668020672552</v>
       </c>
@@ -915,27 +894,6 @@
       <c r="AQ2">
         <v>4.0771260570361418</v>
       </c>
-      <c r="AR2">
-        <v>-271.976136658391</v>
-      </c>
-      <c r="AS2">
-        <v>86616.89494133211</v>
-      </c>
-      <c r="AT2">
-        <v>717.87783394550229</v>
-      </c>
-      <c r="AU2">
-        <v>-139.68958475153161</v>
-      </c>
-      <c r="AV2">
-        <v>-100.21614427630441</v>
-      </c>
-      <c r="AW2">
-        <v>-100.12668408084031</v>
-      </c>
-      <c r="AX2">
-        <v>-101.24822832708669</v>
-      </c>
       <c r="AY2">
         <v>-72.146527455872246</v>
       </c>
@@ -958,13 +916,13 @@
         <v>-64.859750877951427</v>
       </c>
       <c r="BF2">
-        <v>50.527072566866551</v>
+        <v>0.35138171124437168</v>
       </c>
       <c r="BG2">
-        <v>8.7101893345842409</v>
+        <v>-27.526540443610511</v>
       </c>
       <c r="BH2">
-        <v>-20.24632979813406</v>
+        <v>-46.83088653208938</v>
       </c>
       <c r="BI2">
         <v>-49.440361998596508</v>
@@ -984,13 +942,13 @@
         <v>64</v>
       </c>
       <c r="B3">
-        <v>14.483919201196169</v>
+        <v>-23.677387199202549</v>
       </c>
       <c r="C3">
-        <v>-17.164136703250911</v>
+        <v>-44.776091135500607</v>
       </c>
       <c r="D3">
-        <v>0.4166312388402269</v>
+        <v>-33.055579174106512</v>
       </c>
       <c r="E3">
         <v>-18.325301969017811</v>
@@ -1005,13 +963,13 @@
         <v>4.4257426298444154</v>
       </c>
       <c r="I3">
-        <v>20.17780360177025</v>
+        <v>-19.8814642654865</v>
       </c>
       <c r="J3">
-        <v>11.091057217155511</v>
+        <v>-25.939295188562991</v>
       </c>
       <c r="K3">
-        <v>-1.12159911160465</v>
+        <v>-34.081066074403097</v>
       </c>
       <c r="L3">
         <v>-28.7133331986164</v>
@@ -1035,16 +993,16 @@
         <v>-12.63031097850263</v>
       </c>
       <c r="S3">
-        <v>23.591383137643621</v>
+        <v>-17.60574457490425</v>
       </c>
       <c r="T3">
-        <v>43.506140552794818</v>
+        <v>-4.3292396314701262</v>
       </c>
       <c r="U3">
-        <v>51.009167186433807</v>
+        <v>0.6727781242892189</v>
       </c>
       <c r="V3">
-        <v>49.366317398826318</v>
+        <v>-0.42245506744911848</v>
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.3">
@@ -1052,13 +1010,13 @@
         <v>65</v>
       </c>
       <c r="B4">
-        <v>13.32559072576387</v>
+        <v>-24.449606182824091</v>
       </c>
       <c r="C4">
-        <v>-11.34140112372793</v>
+        <v>-40.894267415818618</v>
       </c>
       <c r="D4">
-        <v>-15.1807619781423</v>
+        <v>-43.453841318761533</v>
       </c>
       <c r="E4">
         <v>-78.202867617092338</v>
@@ -1073,13 +1031,13 @@
         <v>8.6480558233470184</v>
       </c>
       <c r="I4">
-        <v>35.839383772237412</v>
+        <v>-9.440410818508397</v>
       </c>
       <c r="J4">
-        <v>27.844772871520529</v>
+        <v>-14.77015141898632</v>
       </c>
       <c r="K4">
-        <v>-24.69401028834972</v>
+        <v>-49.796006858899823</v>
       </c>
       <c r="L4">
         <v>-52.485894376605437</v>
@@ -1178,13 +1136,13 @@
         <v>80.53392294755956</v>
       </c>
       <c r="BF4">
-        <v>76.370415303487789</v>
+        <v>17.58027686899187</v>
       </c>
       <c r="BG4">
-        <v>90.601932689353333</v>
+        <v>27.06795512623556</v>
       </c>
       <c r="BH4">
-        <v>127.2653227127787</v>
+        <v>51.510215141852477</v>
       </c>
       <c r="BI4">
         <v>-9.8227828683494014</v>
@@ -1204,13 +1162,13 @@
         <v>66</v>
       </c>
       <c r="B5">
-        <v>39.252378835844461</v>
+        <v>-7.1650807761036894</v>
       </c>
       <c r="C5">
-        <v>1.400692840646655</v>
+        <v>-32.399538106235561</v>
       </c>
       <c r="D5">
-        <v>-14.22709142974024</v>
+        <v>-42.818060953160163</v>
       </c>
       <c r="E5">
         <v>-46.596465277662588</v>
@@ -1309,13 +1267,13 @@
         <v>-25.92827475003417</v>
       </c>
       <c r="BF5">
-        <v>78.360369919262411</v>
+        <v>18.90691327950827</v>
       </c>
       <c r="BG5">
-        <v>102.447718705871</v>
+        <v>34.965145803913977</v>
       </c>
       <c r="BH5">
-        <v>98.798463466530904</v>
+        <v>32.532308977687258</v>
       </c>
       <c r="BI5">
         <v>67.279314369178138</v>
@@ -1335,13 +1293,13 @@
         <v>67</v>
       </c>
       <c r="B6">
-        <v>47.264295255741793</v>
+        <v>-1.8238031628388049</v>
       </c>
       <c r="C6">
-        <v>32.37214363438521</v>
+        <v>-11.7519042437432</v>
       </c>
       <c r="D6">
-        <v>60.104011887072787</v>
+        <v>6.736007924715202</v>
       </c>
       <c r="E6">
         <v>-21.613501696916959</v>
@@ -1355,27 +1313,6 @@
       <c r="H6">
         <v>-17.839197543025051</v>
       </c>
-      <c r="I6">
-        <v>-149.62984278128019</v>
-      </c>
-      <c r="J6">
-        <v>-133.6864982341755</v>
-      </c>
-      <c r="K6">
-        <v>-129.92097724170199</v>
-      </c>
-      <c r="L6">
-        <v>-111.4687301192356</v>
-      </c>
-      <c r="M6">
-        <v>-114.0363402021722</v>
-      </c>
-      <c r="N6">
-        <v>-112.3075654754673</v>
-      </c>
-      <c r="O6">
-        <v>-117.0015077430586</v>
-      </c>
       <c r="P6">
         <v>-36.041927815650517</v>
       </c>
@@ -1398,13 +1335,13 @@
         <v>-14.36870070427544</v>
       </c>
       <c r="W6">
-        <v>19.328723048637809</v>
+        <v>-20.44751796757479</v>
       </c>
       <c r="X6">
-        <v>9.637956221980664</v>
+        <v>-26.90802918534623</v>
       </c>
       <c r="Y6">
-        <v>9.378292939936772</v>
+        <v>-27.081138040042141</v>
       </c>
       <c r="Z6">
         <v>75.954689048688763</v>
@@ -1491,16 +1428,16 @@
         <v>4.1180323778034298</v>
       </c>
       <c r="BB6">
-        <v>27.08324630359084</v>
+        <v>-15.2778357976061</v>
       </c>
       <c r="BC6">
-        <v>19.783393501805069</v>
+        <v>-20.144404332129959</v>
       </c>
       <c r="BD6">
-        <v>27.742316811333939</v>
+        <v>-14.838455459110699</v>
       </c>
       <c r="BE6">
-        <v>44.924705234960363</v>
+        <v>-3.3835298433597569</v>
       </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.3">
@@ -1508,13 +1445,13 @@
         <v>68</v>
       </c>
       <c r="B7">
-        <v>23.079029019894151</v>
+        <v>-17.947313986737239</v>
       </c>
       <c r="C7">
-        <v>17.097392597869248</v>
+        <v>-21.9350716014205</v>
       </c>
       <c r="D7">
-        <v>0.42768950902793929</v>
+        <v>-33.048206993981367</v>
       </c>
       <c r="E7">
         <v>-63.495560582948038</v>
@@ -1528,27 +1465,6 @@
       <c r="H7">
         <v>-28.237552178114779</v>
       </c>
-      <c r="I7">
-        <v>-109.029161433585</v>
-      </c>
-      <c r="J7">
-        <v>-105.4093735937879</v>
-      </c>
-      <c r="K7">
-        <v>-104.6989438473408</v>
-      </c>
-      <c r="L7">
-        <v>-104.2319487500237</v>
-      </c>
-      <c r="M7">
-        <v>-108.8968592456563</v>
-      </c>
-      <c r="N7">
-        <v>-108.9477436522714</v>
-      </c>
-      <c r="O7">
-        <v>-110.8270033059476</v>
-      </c>
       <c r="P7">
         <v>-23.217831991831819</v>
       </c>
@@ -1570,77 +1486,14 @@
       <c r="V7">
         <v>-22.40250539011177</v>
       </c>
-      <c r="W7">
-        <v>-107.36214576382351</v>
-      </c>
-      <c r="X7">
-        <v>-108.42379425907041</v>
-      </c>
-      <c r="Y7">
-        <v>-109.7551444169661</v>
-      </c>
-      <c r="Z7">
-        <v>-108.4023799815524</v>
-      </c>
-      <c r="AA7">
-        <v>-110.9878085476944</v>
-      </c>
-      <c r="AB7">
-        <v>-109.71137298155141</v>
-      </c>
-      <c r="AC7">
-        <v>-107.996265735881</v>
-      </c>
-      <c r="AD7">
-        <v>-109.71638380578069</v>
-      </c>
-      <c r="AE7">
-        <v>-110.5931509415916</v>
-      </c>
-      <c r="AF7">
-        <v>-110.6539621412694</v>
-      </c>
-      <c r="AG7">
-        <v>-103.04618667897159</v>
-      </c>
-      <c r="AH7">
-        <v>-102.4428499140156</v>
-      </c>
-      <c r="AI7">
-        <v>-104.42956094111599</v>
-      </c>
-      <c r="AJ7">
-        <v>-107.2800970814302</v>
-      </c>
-      <c r="AK7">
-        <v>-118.40084009465259</v>
-      </c>
-      <c r="AL7">
-        <v>-114.83677507773891</v>
-      </c>
-      <c r="AM7">
-        <v>-121.50168153238781</v>
-      </c>
-      <c r="AN7">
-        <v>-110.1318309629569</v>
-      </c>
-      <c r="AO7">
-        <v>-112.5102793885082</v>
-      </c>
-      <c r="AP7">
-        <v>-111.2693903378598</v>
-      </c>
-      <c r="AQ7">
-        <v>-115.7816177532666</v>
-      </c>
       <c r="BF7">
-        <v>-29.582706182160969</v>
+        <v>-53.055137454773977</v>
       </c>
       <c r="BG7">
-        <v>-30.294393907729471</v>
+        <v>-53.52959593848631</v>
       </c>
       <c r="BH7">
-        <v>-39.485012566605818</v>
+        <v>-59.656675044403883</v>
       </c>
       <c r="BI7">
         <v>-66.074062166323529</v>
@@ -1660,13 +1513,13 @@
         <v>69</v>
       </c>
       <c r="B8">
-        <v>89.479824596693092</v>
+        <v>26.319883064462051</v>
       </c>
       <c r="C8">
-        <v>91.367008324367191</v>
+        <v>27.57800554957813</v>
       </c>
       <c r="D8">
-        <v>122.1809268902918</v>
+        <v>48.1206179268612</v>
       </c>
       <c r="E8">
         <v>81.144740769845072</v>
@@ -1702,13 +1555,13 @@
         <v>-16.10896945120929</v>
       </c>
       <c r="W8">
-        <v>64.496384169888728</v>
+        <v>9.6642561132591549</v>
       </c>
       <c r="X8">
-        <v>40.222461835310128</v>
+        <v>-6.5183587764599134</v>
       </c>
       <c r="Y8">
-        <v>-12.004677955136421</v>
+        <v>-41.336451970090948</v>
       </c>
       <c r="Z8">
         <v>-49.605559493861477</v>
@@ -1786,13 +1639,13 @@
         <v>-35.034195241737777</v>
       </c>
       <c r="BF8">
-        <v>32.690204825503891</v>
+        <v>-11.53986344966407</v>
       </c>
       <c r="BG8">
-        <v>1.733327418261092</v>
+        <v>-32.17778172115927</v>
       </c>
       <c r="BH8">
-        <v>20.221213840045358</v>
+        <v>-19.85252410663643</v>
       </c>
       <c r="BI8">
         <v>-10.32495130526906</v>
@@ -1812,13 +1665,13 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>79.026132100260526</v>
+        <v>19.35075473350701</v>
       </c>
       <c r="C9">
-        <v>99.630859193561776</v>
+        <v>33.087239462374527</v>
       </c>
       <c r="D9">
-        <v>97.126256959129947</v>
+        <v>31.41750463941997</v>
       </c>
       <c r="E9">
         <v>-26.44493040807787</v>
@@ -1833,13 +1686,13 @@
         <v>-5.8644964649225138</v>
       </c>
       <c r="I9">
-        <v>80.058528266051681</v>
+        <v>20.039018844034459</v>
       </c>
       <c r="J9">
-        <v>85.927950939930952</v>
+        <v>23.9519672932873</v>
       </c>
       <c r="K9">
-        <v>91.719650195945079</v>
+        <v>27.813100130630058</v>
       </c>
       <c r="L9">
         <v>-54.635576654565767</v>
@@ -1938,13 +1791,13 @@
         <v>-36.965521889764702</v>
       </c>
       <c r="BF9">
-        <v>-25.76711838670904</v>
+        <v>-50.511412257806029</v>
       </c>
       <c r="BG9">
-        <v>-42.706041365436597</v>
+        <v>-61.804027576957729</v>
       </c>
       <c r="BH9">
-        <v>-35.070928247689693</v>
+        <v>-56.713952165126457</v>
       </c>
       <c r="BI9">
         <v>-79.18344267642901</v>
@@ -1964,13 +1817,13 @@
         <v>71</v>
       </c>
       <c r="B10">
-        <v>38.736895516036391</v>
+        <v>-7.5087363226424104</v>
       </c>
       <c r="C10">
-        <v>0.49611606348704013</v>
+        <v>-33.00258929100864</v>
       </c>
       <c r="D10">
-        <v>-25.765448135090001</v>
+        <v>-50.510298756726669</v>
       </c>
       <c r="E10">
         <v>43.095801532699163</v>
@@ -2027,13 +1880,13 @@
         <v>-4.1485633024806852</v>
       </c>
       <c r="BF10">
-        <v>77.611120050220165</v>
+        <v>18.407413366813451</v>
       </c>
       <c r="BG10">
-        <v>101.03414017341041</v>
+        <v>34.02276011560695</v>
       </c>
       <c r="BH10">
-        <v>109.6629771925811</v>
+        <v>39.77531812838739</v>
       </c>
       <c r="BI10">
         <v>33.803853616183922</v>
@@ -2053,13 +1906,13 @@
         <v>72</v>
       </c>
       <c r="B11">
-        <v>34.526015813442363</v>
+        <v>-10.31598945770509</v>
       </c>
       <c r="C11">
-        <v>41.776323214084186</v>
+        <v>-5.4824511906105373</v>
       </c>
       <c r="D11">
-        <v>51.874702113011693</v>
+        <v>1.249801408674466</v>
       </c>
       <c r="E11">
         <v>-12.05584468197825</v>
@@ -2167,16 +2020,16 @@
         <v>-0.71207310960014403</v>
       </c>
       <c r="BB11">
-        <v>10.876388267778241</v>
+        <v>-26.082407821481169</v>
       </c>
       <c r="BC11">
-        <v>39.614614614614617</v>
+        <v>-6.9235902569235872</v>
       </c>
       <c r="BD11">
-        <v>46.743219164521868</v>
+        <v>-2.1711872236520851</v>
       </c>
       <c r="BE11">
-        <v>60.823175336319203</v>
+        <v>7.2154502242127938</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.3">
@@ -2184,13 +2037,13 @@
         <v>73</v>
       </c>
       <c r="B12">
-        <v>57.564423595042634</v>
+        <v>5.0429490633617524</v>
       </c>
       <c r="C12">
-        <v>57.579410839710633</v>
+        <v>5.0529405598070936</v>
       </c>
       <c r="D12">
-        <v>62.379580891846253</v>
+        <v>8.2530539278975041</v>
       </c>
       <c r="E12">
         <v>19.419042495965581</v>
@@ -2226,13 +2079,13 @@
         <v>-10.02706623792513</v>
       </c>
       <c r="W12">
-        <v>-57.765220561429103</v>
+        <v>-71.843480374286059</v>
       </c>
       <c r="X12">
-        <v>-20.799863271235701</v>
+        <v>-47.199908847490462</v>
       </c>
       <c r="Y12">
-        <v>2.2260718925941858</v>
+        <v>-31.849285404937209</v>
       </c>
       <c r="Z12">
         <v>-35.163435452921327</v>
@@ -2298,16 +2151,16 @@
         <v>-24.391520544360109</v>
       </c>
       <c r="AU12">
-        <v>26.41960549910344</v>
+        <v>-15.72026300059771</v>
       </c>
       <c r="AV12">
-        <v>7.6488989756486578</v>
+        <v>-28.23406734956756</v>
       </c>
       <c r="AW12">
-        <v>36.718616201404352</v>
+        <v>-8.8542558657304351</v>
       </c>
       <c r="AX12">
-        <v>49.219458152885501</v>
+        <v>-0.52036123140966928</v>
       </c>
       <c r="AY12">
         <v>-69.39649980210288</v>
@@ -2336,197 +2189,197 @@
         <v>74</v>
       </c>
       <c r="B13">
-        <v>2066.0790046758789</v>
+        <v>227.96812499999999</v>
       </c>
       <c r="C13">
-        <v>1090.813377594628</v>
+        <v>62.112916666666663</v>
       </c>
       <c r="D13">
-        <v>1589.946598925766</v>
+        <v>21.20366666666667</v>
       </c>
       <c r="E13">
-        <v>-169.38207490470049</v>
+        <v>-318.38474999999988</v>
       </c>
       <c r="F13">
-        <v>122.2110754192902</v>
+        <v>-210.94916666666671</v>
       </c>
       <c r="G13">
-        <v>-238.98161044973739</v>
+        <v>-126.3341666666667</v>
       </c>
       <c r="H13">
-        <v>-179.8878755019941</v>
+        <v>-34.415335393772907</v>
       </c>
       <c r="I13">
-        <v>-630.37719166694842</v>
+        <v>26.952354166666641</v>
       </c>
       <c r="J13">
-        <v>-733.52738160391004</v>
+        <v>-33.801958333333317</v>
       </c>
       <c r="K13">
-        <v>-726.08468122524198</v>
+        <v>-76.913083333333333</v>
       </c>
       <c r="L13">
-        <v>-3351.5969524299312</v>
+        <v>-99.588124999999991</v>
       </c>
       <c r="M13">
-        <v>-2896.6422563079632</v>
+        <v>-85.73566666666666</v>
       </c>
       <c r="N13">
-        <v>-3360.8832853400031</v>
+        <v>-71.307791666666688</v>
       </c>
       <c r="O13">
-        <v>-2517.1481930920158</v>
+        <v>-15.030927083333349</v>
       </c>
       <c r="P13">
-        <v>563.33140572342393</v>
+        <v>1.2889791666666379</v>
       </c>
       <c r="Q13">
-        <v>594.58484640937786</v>
+        <v>-170.33937499999999</v>
       </c>
       <c r="R13">
-        <v>218.51620800495809</v>
+        <v>-247.55083333333329</v>
       </c>
       <c r="S13">
-        <v>-1146.4077416878761</v>
+        <v>-316.52962500000001</v>
       </c>
       <c r="T13">
-        <v>-661.20777145996635</v>
+        <v>-295.58808333333337</v>
       </c>
       <c r="U13">
-        <v>-370.56458045743392</v>
+        <v>-169.3099</v>
       </c>
       <c r="V13">
-        <v>-99.856383431658756</v>
+        <v>-28.445566666666661</v>
       </c>
       <c r="W13">
-        <v>-1832.76426689043</v>
+        <v>6.2335208333333352</v>
       </c>
       <c r="X13">
-        <v>-1746.2411253619071</v>
+        <v>-8.5939999999999941</v>
       </c>
       <c r="Y13">
-        <v>-1759.22318885397</v>
+        <v>-15.28466666666667</v>
       </c>
       <c r="Z13">
-        <v>-3036.7466324437169</v>
+        <v>-24.885000000000002</v>
       </c>
       <c r="AA13">
-        <v>-3222.3083346181938</v>
+        <v>-17.87908333333333</v>
       </c>
       <c r="AB13">
-        <v>-2403.8979826440318</v>
+        <v>-2.0436250000000018</v>
       </c>
       <c r="AC13">
-        <v>-2064.5847945548858</v>
+        <v>6.5324583333333344</v>
       </c>
       <c r="AD13">
-        <v>-549.5730395276596</v>
+        <v>-13.73114583333335</v>
       </c>
       <c r="AE13">
-        <v>-1450.438364793139</v>
+        <v>-123.245125</v>
       </c>
       <c r="AF13">
-        <v>-2004.681409269605</v>
+        <v>-196.1596666666666</v>
       </c>
       <c r="AG13">
-        <v>-2520.9576606668788</v>
+        <v>-185.44450000000001</v>
       </c>
       <c r="AH13">
-        <v>-2089.8928017179578</v>
+        <v>-137.3410833333333</v>
       </c>
       <c r="AI13">
-        <v>-2401.07661346755</v>
+        <v>-116.1660833333333</v>
       </c>
       <c r="AJ13">
-        <v>-2149.9482843601968</v>
+        <v>-61.337217803030313</v>
       </c>
       <c r="AK13">
-        <v>-1152.999919273037</v>
+        <v>-61.819657012195172</v>
       </c>
       <c r="AL13">
-        <v>-1276.068251007106</v>
+        <v>-142.48065931372551</v>
       </c>
       <c r="AM13">
-        <v>-651.63602503769891</v>
+        <v>-145.23031666666671</v>
       </c>
       <c r="AN13">
-        <v>527.16561371143644</v>
+        <v>-121.94275</v>
       </c>
       <c r="AO13">
-        <v>-1263.05059999695</v>
+        <v>-183.6809166666666</v>
       </c>
       <c r="AP13">
-        <v>-1062.007305681122</v>
+        <v>-118.0817361111111</v>
       </c>
       <c r="AQ13">
-        <v>-796.57517944202846</v>
+        <v>-3.7462749999999998</v>
       </c>
       <c r="AR13">
-        <v>-2357.0492133994749</v>
+        <v>-26.219791666666669</v>
       </c>
       <c r="AS13">
-        <v>-2495.8367251908371</v>
+        <v>-60.007375000000003</v>
       </c>
       <c r="AT13">
-        <v>-3383.5284513060551</v>
+        <v>-82.906583333333344</v>
       </c>
       <c r="AU13">
-        <v>-3299.1082223560052</v>
+        <v>-123.3715</v>
       </c>
       <c r="AV13">
-        <v>-1655.3616322208291</v>
+        <v>-84.723416666666665</v>
       </c>
       <c r="AW13">
-        <v>-1190.0129599834211</v>
+        <v>-35.331500000000013</v>
       </c>
       <c r="AX13">
-        <v>-1249.534090028802</v>
+        <v>5.6622083333333437</v>
       </c>
       <c r="AY13">
-        <v>-3006.899379549543</v>
+        <v>-63.74647916666671</v>
       </c>
       <c r="AZ13">
-        <v>-2886.9474969033981</v>
+        <v>-65.493208333333328</v>
       </c>
       <c r="BA13">
-        <v>-2503.7175912307721</v>
+        <v>-70.894750000000016</v>
       </c>
       <c r="BB13">
-        <v>-3790.841674027015</v>
+        <v>-98.911633333333384</v>
       </c>
       <c r="BC13">
-        <v>-2328.678312287811</v>
+        <v>-83.691333333333318</v>
       </c>
       <c r="BD13">
-        <v>-1685.073659110783</v>
+        <v>-53.405583333333347</v>
       </c>
       <c r="BE13">
-        <v>-1606.8474086653141</v>
+        <v>-43.870229166666682</v>
       </c>
       <c r="BF13">
-        <v>285.57452387513001</v>
+        <v>-34.887395833333358</v>
       </c>
       <c r="BG13">
-        <v>127.48918290752989</v>
+        <v>-103.70399999999999</v>
       </c>
       <c r="BH13">
-        <v>278.44749851947131</v>
+        <v>-145.3764166666667</v>
       </c>
       <c r="BI13">
-        <v>-1347.826128814796</v>
+        <v>-243.53691666666671</v>
       </c>
       <c r="BJ13">
-        <v>-1140.950196727468</v>
+        <v>-190.82149999999999</v>
       </c>
       <c r="BK13">
-        <v>-967.84924766779761</v>
+        <v>-113.7895833333333</v>
       </c>
       <c r="BL13">
-        <v>-1126.5766488430211</v>
+        <v>-70.565645833333335</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:BL13">
+  <conditionalFormatting sqref="A1:BL13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/plots/alerts_cdb.xlsx
+++ b/plots/alerts_cdb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_387955BE8760D36607DA2511595ED87656CD2798" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5B9C7E8-5D31-450F-A565-A326AD188BAD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{F64C5ED5-37C0-4660-99B2-72A4794C6001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="1440" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BF3" sqref="BF3:BL3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/plots/alerts_cdb.xlsx
+++ b/plots/alerts_cdb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="114_{F5855D56-91EB-4F1B-BD8C-7619DE4197E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2BE05085-E521-4B69-A745-85ECC73D705C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="114_{4BD38589-95C6-4E23-87AC-CF616B527F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5F290A6B-B1D7-4D4B-B1E5-6B68EDD8E63A}"/>
   <bookViews>
-    <workbookView xWindow="35505" yWindow="4935" windowWidth="17280" windowHeight="8985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,193 +22,196 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
-    <t>A1 -12h</t>
-  </si>
-  <si>
-    <t>A1 -6h</t>
-  </si>
-  <si>
-    <t>A1 -3h</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A1 3h</t>
-  </si>
-  <si>
-    <t>A1 6h</t>
-  </si>
-  <si>
-    <t>A1 12h</t>
-  </si>
-  <si>
-    <t>A2 -12h</t>
-  </si>
-  <si>
-    <t>A2 -6h</t>
-  </si>
-  <si>
-    <t>A2 -3h</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A2 3h</t>
-  </si>
-  <si>
-    <t>A2 6h</t>
-  </si>
-  <si>
-    <t>A2 12h</t>
-  </si>
-  <si>
-    <t>A3 -12h</t>
-  </si>
-  <si>
-    <t>A3 -6h</t>
-  </si>
-  <si>
-    <t>A3 -3h</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A3 3h</t>
-  </si>
-  <si>
-    <t>A3 6h</t>
-  </si>
-  <si>
-    <t>A3 12h</t>
-  </si>
-  <si>
-    <t>A4 -12h</t>
-  </si>
-  <si>
-    <t>A4 -6h</t>
-  </si>
-  <si>
-    <t>A4 -3h</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A4 3h</t>
-  </si>
-  <si>
-    <t>A4 6h</t>
-  </si>
-  <si>
-    <t>A4 12h</t>
-  </si>
-  <si>
-    <t>A5 -12h</t>
-  </si>
-  <si>
-    <t>A5 -6h</t>
-  </si>
-  <si>
-    <t>A5 -3h</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A5 3h</t>
-  </si>
-  <si>
-    <t>A5 6h</t>
-  </si>
-  <si>
-    <t>A5 12h</t>
-  </si>
-  <si>
-    <t>A6 -12h</t>
-  </si>
-  <si>
-    <t>A6 -6h</t>
-  </si>
-  <si>
-    <t>A6 -3h</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A6 3h</t>
-  </si>
-  <si>
-    <t>A6 6h</t>
-  </si>
-  <si>
-    <t>A6 12h</t>
-  </si>
-  <si>
-    <t>A7 -12h</t>
-  </si>
-  <si>
-    <t>A7 -6h</t>
-  </si>
-  <si>
-    <t>A7 -3h</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A7 3h</t>
-  </si>
-  <si>
-    <t>A7 6h</t>
-  </si>
-  <si>
-    <t>A7 12h</t>
-  </si>
-  <si>
-    <t>A8 -12h</t>
-  </si>
-  <si>
-    <t>A8 -6h</t>
-  </si>
-  <si>
-    <t>A8 -3h</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A8 3h</t>
-  </si>
-  <si>
-    <t>A8 6h</t>
-  </si>
-  <si>
-    <t>A8 12h</t>
-  </si>
-  <si>
-    <t>A9 -12h</t>
-  </si>
-  <si>
-    <t>A9 -6h</t>
-  </si>
-  <si>
-    <t>A9 -3h</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A9 3h</t>
-  </si>
-  <si>
-    <t>A9 6h</t>
-  </si>
-  <si>
-    <t>A9 12h</t>
+    <t>A1-12h</t>
+  </si>
+  <si>
+    <t>A1-6h</t>
+  </si>
+  <si>
+    <t>A1-3h</t>
+  </si>
+  <si>
+    <t>Jeudi28 Avril 19h - 21h</t>
+  </si>
+  <si>
+    <t>A1+3h</t>
+  </si>
+  <si>
+    <t>A1+6h</t>
+  </si>
+  <si>
+    <t>A1+12h</t>
+  </si>
+  <si>
+    <t>A2-12h</t>
+  </si>
+  <si>
+    <t>A2-6h</t>
+  </si>
+  <si>
+    <t>A2-3h</t>
+  </si>
+  <si>
+    <t>Mercredi4 Mai 14h - 16h</t>
+  </si>
+  <si>
+    <t>A2+3h</t>
+  </si>
+  <si>
+    <t>A2+6h</t>
+  </si>
+  <si>
+    <t>A2+12h</t>
+  </si>
+  <si>
+    <t>A3-12h</t>
+  </si>
+  <si>
+    <t>A3-6h</t>
+  </si>
+  <si>
+    <t>A3-3h</t>
+  </si>
+  <si>
+    <t>Dimanche15 Mai 17h - 19h</t>
+  </si>
+  <si>
+    <t>A3+3h</t>
+  </si>
+  <si>
+    <t>A3+6h</t>
+  </si>
+  <si>
+    <t>A3+12h</t>
+  </si>
+  <si>
+    <t>A4-12h</t>
+  </si>
+  <si>
+    <t>A4-6h</t>
+  </si>
+  <si>
+    <t>A4-3h</t>
+  </si>
+  <si>
+    <t>Vendredi3 Juin 18h - 20h</t>
+  </si>
+  <si>
+    <t>A4+3h</t>
+  </si>
+  <si>
+    <t>A4+6h</t>
+  </si>
+  <si>
+    <t>A4+12h</t>
+  </si>
+  <si>
+    <t>A5-12h</t>
+  </si>
+  <si>
+    <t>A5-6h</t>
+  </si>
+  <si>
+    <t>A5-3h</t>
+  </si>
+  <si>
+    <t>Samedi11 Juin 11h - 13h</t>
+  </si>
+  <si>
+    <t>A5+3h</t>
+  </si>
+  <si>
+    <t>A5+6h</t>
+  </si>
+  <si>
+    <t>A5+12h</t>
+  </si>
+  <si>
+    <t>A6-12h</t>
+  </si>
+  <si>
+    <t>A6-6h</t>
+  </si>
+  <si>
+    <t>A6-3h</t>
+  </si>
+  <si>
+    <t>Jeudi23 Juin 15h - 17h</t>
+  </si>
+  <si>
+    <t>A6+3h</t>
+  </si>
+  <si>
+    <t>A6+6h</t>
+  </si>
+  <si>
+    <t>A6+12h</t>
+  </si>
+  <si>
+    <t>A7-12h</t>
+  </si>
+  <si>
+    <t>A7-6h</t>
+  </si>
+  <si>
+    <t>A7-3h</t>
+  </si>
+  <si>
+    <t>Mardi12 Juillet 18h - 21h</t>
+  </si>
+  <si>
+    <t>A7+3h</t>
+  </si>
+  <si>
+    <t>A7+6h</t>
+  </si>
+  <si>
+    <t>A7+12h</t>
+  </si>
+  <si>
+    <t>A8-12h</t>
+  </si>
+  <si>
+    <t>A8-6h</t>
+  </si>
+  <si>
+    <t>A8-3h</t>
+  </si>
+  <si>
+    <t>Mercredi20 Juillet 18h - 21h</t>
+  </si>
+  <si>
+    <t>A8+3h</t>
+  </si>
+  <si>
+    <t>A8+6h</t>
+  </si>
+  <si>
+    <t>A8+12h</t>
+  </si>
+  <si>
+    <t>A9-12h</t>
+  </si>
+  <si>
+    <t>A9-6h</t>
+  </si>
+  <si>
+    <t>A9-3h</t>
+  </si>
+  <si>
+    <t>Mardi2 Aout 18h - 21h</t>
+  </si>
+  <si>
+    <t>A9+3h</t>
+  </si>
+  <si>
+    <t>A9+6h</t>
+  </si>
+  <si>
+    <t>A9+12h</t>
+  </si>
+  <si>
+    <t>CDB002</t>
   </si>
   <si>
     <t>CDB006</t>
@@ -242,9 +245,6 @@
   </si>
   <si>
     <t>Bilan en kWh</t>
-  </si>
-  <si>
-    <t>CDB2</t>
   </si>
 </sst>
 </file>
@@ -300,12 +300,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,7 +610,7 @@
   <dimension ref="A1:BL13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,1826 +808,1574 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2">
+        <v>63</v>
+      </c>
+      <c r="B2">
         <v>31.20883295912439</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>-60.595293096114723</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>-60.415422523827012</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>-55.033966090088512</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>-44.545060589696988</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>-51.070456671656807</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>-53.973188145451147</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>17.716082047799581</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <v>1.8644935864999841</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>65.308373521077868</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2">
         <v>14.344346679543721</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2">
         <v>-58.64251886404822</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2">
         <v>-53.36520051584931</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2">
         <v>-57.848919036149972</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2">
+      <c r="AD2">
         <v>-1.314412894270645</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2">
         <v>-86.808233801531188</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2">
         <v>-89.539590827564282</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2">
         <v>-65.492203680274613</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2">
         <v>-39.329533993599078</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AI2">
         <v>-41.377213752065508</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2">
         <v>-49.215060606517007</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2">
         <v>-31.898053773200189</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2">
         <v>23.71195808049637</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AM2">
         <v>141.0490508398359</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2">
         <v>248.6576459452038</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2">
         <v>110.5159297853356</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AP2">
         <v>36.274439353098373</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AQ2">
         <v>-26.615643468701329</v>
       </c>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2">
+      <c r="AY2">
         <v>-85.777992224553174</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="AZ2">
         <v>-79.360647668312268</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BA2">
         <v>-82.84805261688372</v>
       </c>
-      <c r="BB2" s="2">
+      <c r="BB2">
         <v>-87.380726285596239</v>
       </c>
-      <c r="BC2" s="2">
+      <c r="BC2">
         <v>-85.077888582927699</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BD2">
         <v>-79.640424784685578</v>
       </c>
-      <c r="BE2" s="2">
+      <c r="BE2">
         <v>-84.256404594233103</v>
       </c>
-      <c r="BF2" s="2">
+      <c r="BF2">
         <v>1.6598792103997291</v>
       </c>
-      <c r="BG2" s="2">
+      <c r="BG2">
         <v>-42.651387976103557</v>
       </c>
-      <c r="BH2" s="2">
+      <c r="BH2">
         <v>-63.697572204105313</v>
       </c>
-      <c r="BI2" s="2">
+      <c r="BI2">
         <v>-75.922081954327851</v>
       </c>
-      <c r="BJ2" s="2">
+      <c r="BJ2">
         <v>-53.708942223265232</v>
       </c>
-      <c r="BK2" s="2">
+      <c r="BK2">
         <v>-59.906213107618498</v>
       </c>
-      <c r="BL2" s="2">
+      <c r="BL2">
         <v>-68.738174317035657</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="2">
+        <v>64</v>
+      </c>
+      <c r="B3">
         <v>-17.618171938016339</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>-30.271783752972901</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>-6.7183337503206069</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>-16.07847075049979</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>56.745646075415813</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>31.16732472988997</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>3.3928928692211642</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>-32.239606462270572</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>-40.091010804407333</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>-50.612385020783258</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>-48.887815526672348</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <v>-42.060091384652722</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>-38.183727669182851</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>-26.03009651711546</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>-17.107591943324401</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>-21.690144928438471</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>-30.062807842154111</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3">
         <v>-30.078828947842251</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3">
         <v>-8.309797480085253</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3">
         <v>1.3472707676440341</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3">
         <v>-0.50980510351640285</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2">
+        <v>65</v>
+      </c>
+      <c r="B4">
         <v>-44.702668514050202</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>-60.936506729113127</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>-66.711761239146441</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>-85.887429657686042</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>-4.706494042798349</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>-12.318326844748761</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>10.236819402550511</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>-18.92756436650221</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>-25.60511942608959</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>-67.403338180210071</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>-65.014302484489377</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4">
         <v>-67.607184318928532</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4">
         <v>-81.741868724988478</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4">
         <v>-71.917378480444086</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4">
         <v>73.636403642625439</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4">
         <v>99.111503689078262</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4">
         <v>-57.50652563366414</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4">
         <v>-64.07712879970417</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4">
         <v>-17.13708973907082</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4">
         <v>-7.9740824619961836</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4">
         <v>-3.6831464756035688</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2">
+      <c r="AD4">
         <v>95.354296739375883</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4">
         <v>-2.2695656886833371</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4">
         <v>-26.57780638683106</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4">
         <v>145.97801997107501</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AH4">
         <v>-42.994259823460453</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI4">
         <v>-55.756315635992252</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AJ4">
         <v>10.01109892615607</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK4">
         <v>40.321951073853747</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4">
         <v>70.785698979692484</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4">
         <v>156.8227726091379</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN4">
         <v>129.4947868206111</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4">
         <v>50.606226123048181</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AP4">
         <v>24.391281489014471</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ4">
         <v>12.784032156032721</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AR4">
         <v>-4.6007539481884114</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4">
         <v>1.891634579454438</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AT4">
         <v>-44.83182925169654</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AU4">
         <v>70.989088702979103</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AV4">
         <v>123.4582552637477</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AW4">
         <v>136.05774827751119</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AX4">
         <v>120.9808422796312</v>
       </c>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2">
+      <c r="BF4">
         <v>41.360356645152343</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BG4">
         <v>69.878251603568771</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BH4">
         <v>188.75205718370259</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BI4">
         <v>75.476969838851332</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BJ4">
         <v>198.32405213447609</v>
       </c>
-      <c r="BK4" s="2">
+      <c r="BK4">
         <v>157.66972114134259</v>
       </c>
-      <c r="BL4" s="2">
+      <c r="BL4">
         <v>124.0405874388433</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="2">
+        <v>66</v>
+      </c>
+      <c r="B5">
         <v>-35.256309168649693</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>-56.568618792147262</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>-62.147808401227387</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>-69.213797521728182</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>-51.207956109788299</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>-40.770562478917469</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>-17.15001357975731</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>48.346385553354366</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>90.587988929653278</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>77.76586648943551</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5">
         <v>-34.461216327543823</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5">
         <v>-26.727782234516599</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5">
         <v>-24.79684668092046</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5">
         <v>-17.46527138955987</v>
       </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2">
+      <c r="AD5">
         <v>-31.37367468609947</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5">
         <v>-46.438678527188557</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5">
         <v>-78.533439903511862</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5">
         <v>-87.222176590212598</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AH5">
         <v>10.13664477389929</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AI5">
         <v>-38.228878367964548</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AJ5">
         <v>-40.417694357905788</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AK5">
         <v>-71.414117185838393</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AL5">
         <v>-100.4716314446393</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AM5">
         <v>-101.1930061116805</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AN5">
         <v>-101.3227124983833</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AO5">
         <v>-96.828159455271461</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AP5">
         <v>-83.025404054167467</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AQ5">
         <v>-60.743180422452092</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AR5">
         <v>-93.174942473652791</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AS5">
         <v>-101.24664464717149</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="AT5">
         <v>-101.2524504722124</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AU5">
         <v>-87.14155714229193</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="AV5">
         <v>-53.068242728792633</v>
       </c>
-      <c r="AW5" s="2">
+      <c r="AW5">
         <v>-33.782230891114743</v>
       </c>
-      <c r="AX5" s="2">
+      <c r="AX5">
         <v>-37.97519118381387</v>
       </c>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2">
+      <c r="BF5">
         <v>46.280344764223493</v>
       </c>
-      <c r="BG5" s="2">
+      <c r="BG5">
         <v>104.0875537111168</v>
       </c>
-      <c r="BH5" s="2">
+      <c r="BH5">
         <v>93.840725036031188</v>
       </c>
-      <c r="BI5" s="2">
+      <c r="BI5">
         <v>78.110044651074745</v>
       </c>
-      <c r="BJ5" s="2">
+      <c r="BJ5">
         <v>-20.547317796923881</v>
       </c>
-      <c r="BK5" s="2">
+      <c r="BK5">
         <v>-7.5252132351473033</v>
       </c>
-      <c r="BL5" s="2">
+      <c r="BL5">
         <v>-13.091210706220449</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="2">
+        <v>67</v>
+      </c>
+      <c r="B6">
         <v>-42.199191916304187</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>-45.481546119317137</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>-43.842224908135272</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>-40.883456858917071</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>-44.184777550696893</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>-34.045280213280407</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>-25.5803175875234</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2">
+      <c r="P6">
         <v>-51.833476558236917</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6">
         <v>-60.808347298267172</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6">
         <v>-59.626454101289383</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6">
         <v>-13.15381780608107</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6">
         <v>-53.570171341550243</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6">
         <v>-33.82740856017795</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6">
         <v>-20.470669073802181</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6">
         <v>-31.662072018718948</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6">
         <v>-40.086809853862363</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6">
         <v>-40.393503833316977</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6">
         <v>200.01030432698801</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6">
         <v>-7.8692391614165116</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6">
         <v>-7.8909490932491293</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6">
         <v>-5.5388494723102299</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6">
         <v>-48.680120043227262</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6">
         <v>-53.993016492406142</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6">
         <v>-70.570514643447368</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG6">
         <v>-76.267031314098176</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AH6">
         <v>-68.863910368945952</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AI6">
         <v>-69.352372897895449</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AJ6">
         <v>-62.481105393977657</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AK6">
         <v>-29.883377236557749</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL6">
         <v>-46.409712987507397</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM6">
         <v>-33.04048341915626</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AN6">
         <v>-1.5932048851884659</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AO6">
         <v>-34.039255221590508</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AP6">
         <v>-25.25794158741763</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AQ6">
         <v>-13.79520559071911</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AR6">
         <v>-41.394363528074066</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AS6">
         <v>-34.831779313337123</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AT6">
         <v>-55.907701392008462</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AU6">
         <v>-26.6926181094559</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="AV6">
         <v>22.698136594718189</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="AW6">
         <v>30.848141345474978</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="AX6">
         <v>23.562342374421249</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="AY6">
         <v>-7.9049885839165421</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="AZ6">
         <v>-7.7055446250776942</v>
       </c>
-      <c r="BA6" s="2">
+      <c r="BA6">
         <v>13.23034750944297</v>
       </c>
-      <c r="BB6" s="2">
+      <c r="BB6">
         <v>-26.60405168861762</v>
       </c>
-      <c r="BC6" s="2">
+      <c r="BC6">
         <v>-33.692786556222693</v>
       </c>
-      <c r="BD6" s="2">
+      <c r="BD6">
         <v>-26.072824817311211</v>
       </c>
-      <c r="BE6" s="2">
+      <c r="BE6">
         <v>-6.4808731838365388</v>
       </c>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="2"/>
-      <c r="BJ6" s="2"/>
-      <c r="BK6" s="2"/>
-      <c r="BL6" s="2"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="2">
+        <v>68</v>
+      </c>
+      <c r="B7">
         <v>-59.098596957951969</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>-62.604735742217578</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>-72.097748734444878</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>-77.044187930025359</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>-62.728183851495288</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>-54.041359634429838</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>-50.961984793578793</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2">
+      <c r="P7">
         <v>-45.548092983000878</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7">
         <v>-62.951540002325999</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7">
         <v>-63.872721239718409</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7">
         <v>-76.211238628718931</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7">
         <v>-68.652337355456837</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7">
         <v>-62.914086433589979</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7">
         <v>-41.103259203760857</v>
       </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2">
+      <c r="BF7">
         <v>-69.406579325911125</v>
       </c>
-      <c r="BG7" s="2">
+      <c r="BG7">
         <v>-69.806447257163413</v>
       </c>
-      <c r="BH7" s="2">
+      <c r="BH7">
         <v>-75.032123052430663</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BI7">
         <v>-86.134274884683137</v>
       </c>
-      <c r="BJ7" s="2">
+      <c r="BJ7">
         <v>-82.976527222430391</v>
       </c>
-      <c r="BK7" s="2">
+      <c r="BK7">
         <v>-75.418326629432258</v>
       </c>
-      <c r="BL7" s="2">
+      <c r="BL7">
         <v>-66.708248674611966</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="2">
+        <v>69</v>
+      </c>
+      <c r="B8">
         <v>56.755449125763413</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>66.984225806723472</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>168.017788860255</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>193.32020388807149</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>-71.387584969569502</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>-67.569504739966334</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>-39.434949237426927</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2">
+      <c r="P8">
         <v>-42.32674707616242</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8">
         <v>-46.884074466295182</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8">
         <v>-64.359040890497184</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8">
         <v>-60.084033613445378</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8">
         <v>-60.905394936205518</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8">
         <v>-21.960316035136088</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8">
         <v>-20.884775507690868</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8">
         <v>30.44895347749225</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8">
         <v>-10.27559590491423</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8">
         <v>-51.643367440989657</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8">
         <v>-64.637869362363915</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8">
         <v>-61.466501489938729</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8">
         <v>63.580060422960727</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8">
         <v>41.638473996760851</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8">
         <v>4.488181163288675</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE8">
         <v>-25.288256573102259</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8">
         <v>-25.029030158385769</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8">
         <v>-64.660666863381536</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AH8">
         <v>-67.811499605038861</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AI8">
         <v>-65.579408086702799</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AJ8">
         <v>-71.417051748598155</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AK8">
         <v>-34.777414592837268</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AL8">
         <v>-53.117954680684967</v>
       </c>
-      <c r="AM8" s="2">
+      <c r="AM8">
         <v>-52.922462228700503</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="AN8">
         <v>291.53024062780048</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="AO8">
         <v>-72.179519769448902</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="AP8">
         <v>-31.340308304541299</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="AQ8">
         <v>3.343521722215578</v>
       </c>
-      <c r="AR8" s="2">
+      <c r="AR8">
         <v>90.09649511978705</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AS8">
         <v>177.6325950979367</v>
       </c>
-      <c r="AT8" s="2">
+      <c r="AT8">
         <v>-9.6770345392513253</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="AU8">
         <v>-84.46080177425317</v>
       </c>
-      <c r="AV8" s="2">
+      <c r="AV8">
         <v>-73.956167943107218</v>
       </c>
-      <c r="AW8" s="2">
+      <c r="AW8">
         <v>-66.706297191429627</v>
       </c>
-      <c r="AX8" s="2">
+      <c r="AX8">
         <v>-56.186289845993421</v>
       </c>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
-      <c r="BF8" s="2">
+      <c r="BF8">
         <v>-19.077452057057371</v>
       </c>
-      <c r="BG8" s="2">
+      <c r="BG8">
         <v>-47.245943646222678</v>
       </c>
-      <c r="BH8" s="2">
+      <c r="BH8">
         <v>-31.097635061249729</v>
       </c>
-      <c r="BI8" s="2">
+      <c r="BI8">
         <v>-49.984753375093433</v>
       </c>
-      <c r="BJ8" s="2">
+      <c r="BJ8">
         <v>-50.363858409739969</v>
       </c>
-      <c r="BK8" s="2">
+      <c r="BK8">
         <v>-52.137510382352318</v>
       </c>
-      <c r="BL8" s="2">
+      <c r="BL8">
         <v>-41.584618717030672</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="2">
+        <v>70</v>
+      </c>
+      <c r="B9">
         <v>16.57199590341353</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>45.534344367788577</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>32.521302216906967</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>-35.576842857718987</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>-31.705886391876351</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>-34.913078592077653</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>-7.5827393819474374</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>73.60466893712146</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>89.727228287724259</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <v>94.828032257704621</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9">
         <v>-66.070294876470655</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9">
         <v>26.516731428716319</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9">
         <v>22.482004215506318</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9">
         <v>19.104933301272649</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9">
         <v>-14.52889580770707</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9">
         <v>-45.177758254204683</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9">
         <v>-54.949312792402061</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9">
         <v>-69.145786896990927</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9">
         <v>-10.27548827192353</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9">
         <v>-5.5201522177064151</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9">
         <v>3.5310402576280402</v>
       </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2">
+      <c r="AD9">
         <v>-27.106956536364439</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AE9">
         <v>-24.92533083619432</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AF9">
         <v>-41.38817720207507</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AG9">
         <v>-19.814490825120568</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AH9">
         <v>-31.009571139333708</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AI9">
         <v>-46.737134226562418</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AJ9">
         <v>-52.590392585410093</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AK9">
         <v>-61.141332615307483</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AL9">
         <v>-72.535741103498907</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="AM9">
         <v>-76.352791383854481</v>
       </c>
-      <c r="AN9" s="2">
+      <c r="AN9">
         <v>-82.236555070201163</v>
       </c>
-      <c r="AO9" s="2">
+      <c r="AO9">
         <v>-90.568014494079691</v>
       </c>
-      <c r="AP9" s="2">
+      <c r="AP9">
         <v>-84.825317036604631</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="AQ9">
         <v>-33.165961997878071</v>
       </c>
-      <c r="AR9" s="2">
+      <c r="AR9">
         <v>-63.701941165333409</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AS9">
         <v>-74.762259115752741</v>
       </c>
-      <c r="AT9" s="2">
+      <c r="AT9">
         <v>-72.270547127250197</v>
       </c>
-      <c r="AU9" s="2">
+      <c r="AU9">
         <v>-88.551097512816199</v>
       </c>
-      <c r="AV9" s="2">
+      <c r="AV9">
         <v>-81.212266335879661</v>
       </c>
-      <c r="AW9" s="2">
+      <c r="AW9">
         <v>-66.351955726010985</v>
       </c>
-      <c r="AX9" s="2">
+      <c r="AX9">
         <v>-58.5154264224131</v>
       </c>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2">
+      <c r="BF9">
         <v>-68.456054792622808</v>
       </c>
-      <c r="BG9" s="2">
+      <c r="BG9">
         <v>-78.548484986450291</v>
       </c>
-      <c r="BH9" s="2">
+      <c r="BH9">
         <v>-75.255465910098408</v>
       </c>
-      <c r="BI9" s="2">
+      <c r="BI9">
         <v>-90.756792305008943</v>
       </c>
-      <c r="BJ9" s="2">
+      <c r="BJ9">
         <v>-82.212858203181753</v>
       </c>
-      <c r="BK9" s="2">
+      <c r="BK9">
         <v>-70.849417592676474</v>
       </c>
-      <c r="BL9" s="2">
+      <c r="BL9">
         <v>-62.590935583626766</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="2">
+        <v>71</v>
+      </c>
+      <c r="B10">
         <v>-47.233057748883787</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>-73.734728741353408</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>-85.043210551071127</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>71.568062716888875</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>138.8729914014333</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>98.941166039736032</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>77.145788630924017</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2">
+      <c r="P10">
         <v>0.67524765174096779</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10">
         <v>13.41673302099804</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10">
         <v>-70.342717984651244</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10">
         <v>-53.061165341185742</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10">
         <v>6.9960291290743468</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10">
         <v>-3.3635640070002961</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10">
         <v>6.6005012192039497E-2</v>
       </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2">
+      <c r="AK10">
         <v>-7.9457687392343157</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AL10">
         <v>-52.900172130560662</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="AM10">
         <v>-52.126428802813642</v>
       </c>
-      <c r="AN10" s="2">
+      <c r="AN10">
         <v>-49.141261867796253</v>
       </c>
-      <c r="AO10" s="2">
+      <c r="AO10">
         <v>-44.839728761254577</v>
       </c>
-      <c r="AP10" s="2">
+      <c r="AP10">
         <v>6.1190640369904248</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="AQ10">
         <v>-1.532427303474895</v>
       </c>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2">
+      <c r="BF10">
         <v>40.428470086149787</v>
       </c>
-      <c r="BG10" s="2">
+      <c r="BG10">
         <v>92.790561063970799</v>
       </c>
-      <c r="BH10" s="2">
+      <c r="BH10">
         <v>115.5007139880159</v>
       </c>
-      <c r="BI10" s="2">
+      <c r="BI10">
         <v>29.325884524266659</v>
       </c>
-      <c r="BJ10" s="2">
+      <c r="BJ10">
         <v>4.7079594966024363</v>
       </c>
-      <c r="BK10" s="2">
+      <c r="BK10">
         <v>-0.88327529365192137</v>
       </c>
-      <c r="BL10" s="2">
+      <c r="BL10">
         <v>-35.200018144217474</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="2">
+        <v>72</v>
+      </c>
+      <c r="B11">
         <v>-26.641036240120169</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>-20.77704513957589</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>-7.6591080880390559</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>-15.294406008807011</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>-8.5755438862648248</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>-5.717492199176661</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>-7.3262714656587447</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2">
+      <c r="P11">
         <v>37.969045208147122</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11">
         <v>41.895235182043109</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11">
         <v>89.599461189295567</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11">
         <v>-40.920937791555069</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11">
         <v>-25.92744726322838</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11">
         <v>-15.84649834517117</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11">
         <v>-12.89560102691618</v>
       </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2">
+      <c r="AD11">
         <v>6.2779684130172129</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AE11">
         <v>-1.056721762370586</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AF11">
         <v>3.28083699222509</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AG11">
         <v>-13.9173045282209</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AH11">
         <v>-7.7605155060174464</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AI11">
         <v>1.7445587021877771</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AJ11">
         <v>-11.714888902076821</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AK11">
         <v>-17.05645223989675</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AL11">
         <v>-25.415528233151189</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AM11">
         <v>-22.238513109399431</v>
       </c>
-      <c r="AN11" s="2">
+      <c r="AN11">
         <v>-34.51169643094422</v>
       </c>
-      <c r="AO11" s="2">
+      <c r="AO11">
         <v>8.0846612089759518</v>
       </c>
-      <c r="AP11" s="2">
+      <c r="AP11">
         <v>4.0419953388311276</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="AQ11">
         <v>5.2451555965697274</v>
       </c>
-      <c r="AR11" s="2">
+      <c r="AR11">
         <v>-9.5184599706309534</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AS11">
         <v>-4.1748832522509742</v>
       </c>
-      <c r="AT11" s="2">
+      <c r="AT11">
         <v>-1.8727880749513099</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="AU11">
         <v>-43.26338734046314</v>
       </c>
-      <c r="AV11" s="2">
+      <c r="AV11">
         <v>-7.3218378126646888</v>
       </c>
-      <c r="AW11" s="2">
+      <c r="AW11">
         <v>-13.798099293344171</v>
       </c>
-      <c r="AX11" s="2">
+      <c r="AX11">
         <v>-7.0147346511527733</v>
       </c>
-      <c r="AY11" s="2">
+      <c r="AY11">
         <v>-5.5588077587182294</v>
       </c>
-      <c r="AZ11" s="2">
+      <c r="AZ11">
         <v>1.3667038095183459</v>
       </c>
-      <c r="BA11" s="2">
+      <c r="BA11">
         <v>-1.999581315103695</v>
       </c>
-      <c r="BB11" s="2">
+      <c r="BB11">
         <v>-42.346946139029363</v>
       </c>
-      <c r="BC11" s="2">
+      <c r="BC11">
         <v>-13.044389340970209</v>
       </c>
-      <c r="BD11" s="2">
+      <c r="BD11">
         <v>-4.260155817249248</v>
       </c>
-      <c r="BE11" s="2">
+      <c r="BE11">
         <v>15.419891179714529</v>
       </c>
-      <c r="BF11" s="2"/>
-      <c r="BG11" s="2"/>
-      <c r="BH11" s="2"/>
-      <c r="BI11" s="2"/>
-      <c r="BJ11" s="2"/>
-      <c r="BK11" s="2"/>
-      <c r="BL11" s="2"/>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="2">
+        <v>73</v>
+      </c>
+      <c r="B12">
         <v>-0.1348951953044891</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>3.78990198723137</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>17.664531699619399</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>31.772841575859179</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>-11.287774618304489</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>-8.6043533930857805</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>-3.370866067169517</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2">
+      <c r="P12">
         <v>48.583251675097323</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12">
         <v>118.0662488809311</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12">
         <v>200.03712871287129</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12">
         <v>16.77050882658359</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12">
         <v>-44.577915813452677</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12">
         <v>-35.713315247253021</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12">
         <v>-19.200568605777558</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12">
         <v>-83.51043949596307</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12">
         <v>-62.434905306788373</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12">
         <v>-41.503824854138607</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12">
         <v>-41.609383812746763</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12">
         <v>-17.82068422307205</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AB12">
         <v>-17.638256009946609</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AC12">
         <v>-12.04645741728257</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12">
         <v>-4.0656622083186971</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AE12">
         <v>-13.129359014507861</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AF12">
         <v>-17.42336610757663</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AG12">
         <v>1.6512870325400679</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AH12">
         <v>-16.27674342642495</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AI12">
         <v>-5.9741992882562229</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AJ12">
         <v>-12.47508582429812</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AK12">
         <v>7.9552759278265937</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AL12">
         <v>8.9157702171610591</v>
       </c>
-      <c r="AM12" s="2">
+      <c r="AM12">
         <v>13.99827461047227</v>
       </c>
-      <c r="AN12" s="2">
+      <c r="AN12">
         <v>-9.4875155193819829</v>
       </c>
-      <c r="AO12" s="2">
+      <c r="AO12">
         <v>-9.7253504941392919</v>
       </c>
-      <c r="AP12" s="2">
+      <c r="AP12">
         <v>-26.401090578612529</v>
       </c>
-      <c r="AQ12" s="2">
+      <c r="AQ12">
         <v>-24.817918849299691</v>
       </c>
-      <c r="AR12" s="2">
+      <c r="AR12">
         <v>-36.673533042737432</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AS12">
         <v>-28.152642454166251</v>
       </c>
-      <c r="AT12" s="2">
+      <c r="AT12">
         <v>-27.69855290358954</v>
       </c>
-      <c r="AU12" s="2">
+      <c r="AU12">
         <v>-26.44121004566211</v>
       </c>
-      <c r="AV12" s="2">
+      <c r="AV12">
         <v>-43.162278344975817</v>
       </c>
-      <c r="AW12" s="2">
+      <c r="AW12">
         <v>-14.188645635809911</v>
       </c>
-      <c r="AX12" s="2">
+      <c r="AX12">
         <v>0.70984726559585931</v>
       </c>
-      <c r="AY12" s="2">
+      <c r="AY12">
         <v>-85.059846723499533</v>
       </c>
-      <c r="AZ12" s="2">
+      <c r="AZ12">
         <v>-58.533314965330398</v>
       </c>
-      <c r="BA12" s="2">
+      <c r="BA12">
         <v>-12.02451576452092</v>
       </c>
-      <c r="BB12" s="2">
+      <c r="BB12">
         <v>-17.541378679869549</v>
       </c>
-      <c r="BC12" s="2">
+      <c r="BC12">
         <v>-37.080544461162397</v>
       </c>
-      <c r="BD12" s="2">
+      <c r="BD12">
         <v>-12.21928348160616</v>
       </c>
-      <c r="BE12" s="2">
+      <c r="BE12">
         <v>-7.4017574233168864</v>
       </c>
-      <c r="BF12" s="2"/>
-      <c r="BG12" s="2"/>
-      <c r="BH12" s="2"/>
-      <c r="BI12" s="2"/>
-      <c r="BJ12" s="2"/>
-      <c r="BK12" s="2"/>
-      <c r="BL12" s="2"/>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-15284.206</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-7283.4889999999996</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-3763.4589999999998</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-3018.5909999999999</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-3280.2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-5046.8109999999997</v>
-      </c>
-      <c r="H13" s="2">
-        <v>-10166.473</v>
-      </c>
-      <c r="I13" s="2">
-        <v>-4312.2190000000001</v>
-      </c>
-      <c r="J13" s="2">
-        <v>-2963.5720000000001</v>
-      </c>
-      <c r="K13" s="2">
-        <v>-1549.797</v>
-      </c>
-      <c r="L13" s="2">
-        <v>-851.31200000000001</v>
-      </c>
-      <c r="M13" s="2">
-        <v>-1308.877</v>
-      </c>
-      <c r="N13" s="2">
-        <v>-2982.9879999999998</v>
-      </c>
-      <c r="O13" s="2">
-        <v>-4442.8649999999998</v>
-      </c>
-      <c r="P13" s="2">
-        <v>-14251.133</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>-8170.3689999999997</v>
-      </c>
-      <c r="R13" s="2">
-        <v>-3810.1190000000001</v>
-      </c>
-      <c r="S13" s="2">
-        <v>-2780.373</v>
-      </c>
-      <c r="T13" s="2">
-        <v>-4397.6760000000004</v>
-      </c>
-      <c r="U13" s="2">
-        <v>-6886.8120000000008</v>
-      </c>
-      <c r="V13" s="2">
-        <v>-10371.457</v>
-      </c>
-      <c r="W13" s="2">
-        <v>-931.26099999999997</v>
-      </c>
-      <c r="X13" s="2">
-        <v>-497.50299999999999</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>-251.66200000000001</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>-273.50400000000002</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>-263.39999999999998</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>-391.971</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>-599.55100000000004</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>-6283.9169999999986</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>-3920.2719999999999</v>
-      </c>
-      <c r="AF13" s="2">
-        <v>-2594.0680000000002</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>-1636.0930000000001</v>
-      </c>
-      <c r="AH13" s="2">
-        <v>-1982.394</v>
-      </c>
-      <c r="AI13" s="2">
-        <v>-3952.7979999999998</v>
-      </c>
-      <c r="AJ13" s="2">
-        <v>-8039.527000000001</v>
-      </c>
-      <c r="AK13" s="2">
-        <v>-8802.5390000000007</v>
-      </c>
-      <c r="AL13" s="2">
-        <v>-5181.496000000001</v>
-      </c>
-      <c r="AM13" s="2">
-        <v>-2257.482</v>
-      </c>
-      <c r="AN13" s="2">
-        <v>-1279.6780000000001</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>-2822.117999999999</v>
-      </c>
-      <c r="AP13" s="2">
-        <v>-5427.1589999999997</v>
-      </c>
-      <c r="AQ13" s="2">
-        <v>-7963.5720000000001</v>
-      </c>
-      <c r="AR13" s="2">
-        <v>-4765.5019999999986</v>
-      </c>
-      <c r="AS13" s="2">
-        <v>-2377.1280000000002</v>
-      </c>
-      <c r="AT13" s="2">
-        <v>-1130.5640000000001</v>
-      </c>
-      <c r="AU13" s="2">
-        <v>-1724.1030000000001</v>
-      </c>
-      <c r="AV13" s="2">
-        <v>-1340.2470000000001</v>
-      </c>
-      <c r="AW13" s="2">
-        <v>-1899.893</v>
-      </c>
-      <c r="AX13" s="2">
-        <v>-3403.340999999999</v>
-      </c>
-      <c r="AY13" s="2">
-        <v>-4782.0050000000001</v>
-      </c>
-      <c r="AZ13" s="2">
-        <v>-2029.2149999999999</v>
-      </c>
-      <c r="BA13" s="2">
-        <v>-962.3649999999999</v>
-      </c>
-      <c r="BB13" s="2">
-        <v>-1296.0119999999999</v>
-      </c>
-      <c r="BC13" s="2">
-        <v>-1108.279</v>
-      </c>
-      <c r="BD13" s="2">
-        <v>-1652.7860000000001</v>
-      </c>
-      <c r="BE13" s="2">
-        <v>-3767.663</v>
-      </c>
-      <c r="BF13" s="2">
-        <v>-9568.7149999999983</v>
-      </c>
-      <c r="BG13" s="2">
-        <v>-4242.5569999999998</v>
-      </c>
-      <c r="BH13" s="2">
-        <v>-2230.85</v>
-      </c>
-      <c r="BI13" s="2">
-        <v>-3573.4010000000012</v>
-      </c>
-      <c r="BJ13" s="2">
-        <v>-2731.6619999999998</v>
-      </c>
-      <c r="BK13" s="2">
-        <v>-3948.6219999999989</v>
-      </c>
-      <c r="BL13" s="2">
-        <v>-7527.4440000000004</v>
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <v>-1273.683833333333</v>
+      </c>
+      <c r="C13">
+        <v>-1213.914833333333</v>
+      </c>
+      <c r="D13">
+        <v>-1254.4863333333331</v>
+      </c>
+      <c r="E13">
+        <v>-1509.2954999999999</v>
+      </c>
+      <c r="F13">
+        <v>-1093.4000000000001</v>
+      </c>
+      <c r="G13">
+        <v>-841.13516666666669</v>
+      </c>
+      <c r="H13">
+        <v>-847.20608333333337</v>
+      </c>
+      <c r="I13">
+        <v>-359.35158333333328</v>
+      </c>
+      <c r="J13">
+        <v>-493.92866666666669</v>
+      </c>
+      <c r="K13">
+        <v>-516.59900000000005</v>
+      </c>
+      <c r="L13">
+        <v>-425.65600000000001</v>
+      </c>
+      <c r="M13">
+        <v>-436.29233333333337</v>
+      </c>
+      <c r="N13">
+        <v>-497.16466666666668</v>
+      </c>
+      <c r="O13">
+        <v>-370.23874999999998</v>
+      </c>
+      <c r="P13">
+        <v>-1187.594416666667</v>
+      </c>
+      <c r="Q13">
+        <v>-1361.728166666667</v>
+      </c>
+      <c r="R13">
+        <v>-1270.039666666667</v>
+      </c>
+      <c r="S13">
+        <v>-1390.1865</v>
+      </c>
+      <c r="T13">
+        <v>-1465.8920000000001</v>
+      </c>
+      <c r="U13">
+        <v>-1147.8019999999999</v>
+      </c>
+      <c r="V13">
+        <v>-864.28808333333325</v>
+      </c>
+      <c r="W13">
+        <v>-77.60508333333334</v>
+      </c>
+      <c r="X13">
+        <v>-82.917166666666674</v>
+      </c>
+      <c r="Y13">
+        <v>-83.887333333333331</v>
+      </c>
+      <c r="Z13">
+        <v>-136.75200000000001</v>
+      </c>
+      <c r="AA13">
+        <v>-87.8</v>
+      </c>
+      <c r="AB13">
+        <v>-65.328499999999991</v>
+      </c>
+      <c r="AC13">
+        <v>-49.962583333333328</v>
+      </c>
+      <c r="AD13">
+        <v>-523.65975000000003</v>
+      </c>
+      <c r="AE13">
+        <v>-653.37866666666662</v>
+      </c>
+      <c r="AF13">
+        <v>-864.68933333333337</v>
+      </c>
+      <c r="AG13">
+        <v>-818.04650000000004</v>
+      </c>
+      <c r="AH13">
+        <v>-660.79800000000012</v>
+      </c>
+      <c r="AI13">
+        <v>-658.79966666666678</v>
+      </c>
+      <c r="AJ13">
+        <v>-669.96058333333326</v>
+      </c>
+      <c r="AK13">
+        <v>-733.54491666666672</v>
+      </c>
+      <c r="AL13">
+        <v>-863.58266666666668</v>
+      </c>
+      <c r="AM13">
+        <v>-752.49399999999991</v>
+      </c>
+      <c r="AN13">
+        <v>-639.83900000000006</v>
+      </c>
+      <c r="AO13">
+        <v>-940.70600000000013</v>
+      </c>
+      <c r="AP13">
+        <v>-904.52649999999994</v>
+      </c>
+      <c r="AQ13">
+        <v>-663.63099999999997</v>
+      </c>
+      <c r="AR13">
+        <v>-397.12516666666659</v>
+      </c>
+      <c r="AS13">
+        <v>-396.18799999999999</v>
+      </c>
+      <c r="AT13">
+        <v>-376.85466666666667</v>
+      </c>
+      <c r="AU13">
+        <v>-574.70100000000002</v>
+      </c>
+      <c r="AV13">
+        <v>-446.74900000000002</v>
+      </c>
+      <c r="AW13">
+        <v>-316.64883333333341</v>
+      </c>
+      <c r="AX13">
+        <v>-283.61174999999997</v>
+      </c>
+      <c r="AY13">
+        <v>-398.50041666666658</v>
+      </c>
+      <c r="AZ13">
+        <v>-338.20249999999999</v>
+      </c>
+      <c r="BA13">
+        <v>-320.7883333333333</v>
+      </c>
+      <c r="BB13">
+        <v>-432.00400000000002</v>
+      </c>
+      <c r="BC13">
+        <v>-369.42633333333328</v>
+      </c>
+      <c r="BD13">
+        <v>-275.46433333333329</v>
+      </c>
+      <c r="BE13">
+        <v>-313.97191666666657</v>
+      </c>
+      <c r="BF13">
+        <v>-797.39291666666668</v>
+      </c>
+      <c r="BG13">
+        <v>-707.09283333333337</v>
+      </c>
+      <c r="BH13">
+        <v>-743.61666666666656</v>
+      </c>
+      <c r="BI13">
+        <v>-1191.1336666666671</v>
+      </c>
+      <c r="BJ13">
+        <v>-910.55399999999997</v>
+      </c>
+      <c r="BK13">
+        <v>-658.10366666666664</v>
+      </c>
+      <c r="BL13">
+        <v>-627.28699999999992</v>
       </c>
     </row>
   </sheetData>
@@ -2645,6 +2392,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plots/alerts_cdb.xlsx
+++ b/plots/alerts_cdb.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -216,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,10 +303,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,9 +596,9 @@
       <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:134">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:134" s="3" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1130,7 +1139,7 @@
         <v>106.58805530080591</v>
       </c>
     </row>
-    <row r="3" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:134" s="3" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1438,7 +1447,7 @@
         <v>1.5549572410022781</v>
       </c>
     </row>
-    <row r="4" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:134" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1671,7 +1680,7 @@
         <v>65.865917526521145</v>
       </c>
     </row>
-    <row r="5" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:134" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1964,7 +1973,7 @@
         <v>50.228255829086322</v>
       </c>
     </row>
-    <row r="6" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:134" s="3" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -2272,7 +2281,7 @@
         <v>16.488256693283709</v>
       </c>
     </row>
-    <row r="7" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:134" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -2565,7 +2574,7 @@
         <v>17.913477853378179</v>
       </c>
     </row>
-    <row r="8" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:134" s="3" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -2855,7 +2864,7 @@
         <v>-16.96038138073164</v>
       </c>
     </row>
-    <row r="9" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:134" s="3" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -3127,7 +3136,7 @@
         <v>-0.831000171742729</v>
       </c>
     </row>
-    <row r="10" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:134" s="3" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -3357,7 +3366,7 @@
         <v>-26.388114008869731</v>
       </c>
     </row>
-    <row r="11" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:134" s="3" customFormat="1">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -3629,7 +3638,7 @@
         <v>-17.92322829240134</v>
       </c>
     </row>
-    <row r="12" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:134" s="3" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -3796,7 +3805,7 @@
         <v>25.778597179358179</v>
       </c>
     </row>
-    <row r="13" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:134" s="3" customFormat="1">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -3906,7 +3915,7 @@
         <v>1.8306873334888769</v>
       </c>
     </row>
-    <row r="14" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:134" s="3" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -3995,7 +4004,7 @@
         <v>3.522160950480012</v>
       </c>
     </row>
-    <row r="15" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:134" s="3" customFormat="1">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -4084,7 +4093,7 @@
         <v>61.843567269616031</v>
       </c>
     </row>
-    <row r="16" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:134" s="3" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -4173,7 +4182,7 @@
         <v>56.710926485508587</v>
       </c>
     </row>
-    <row r="17" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:134" s="3" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -4313,7 +4322,7 @@
         <v>131.3197559745868</v>
       </c>
     </row>
-    <row r="18" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:134" s="3" customFormat="1">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -4399,7 +4408,7 @@
         <v>108.3922564636121</v>
       </c>
     </row>
-    <row r="19" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:134" s="3" customFormat="1">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -4479,7 +4488,7 @@
         <v>-25.986866743499679</v>
       </c>
     </row>
-    <row r="20" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:134" s="3" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -4667,7 +4676,7 @@
         <v>35.795829139261727</v>
       </c>
     </row>
-    <row r="21" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:134" s="3" customFormat="1">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -4756,7 +4765,7 @@
         <v>42.551004939859808</v>
       </c>
     </row>
-    <row r="22" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:134" s="3" customFormat="1">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -4863,7 +4872,7 @@
         <v>-33.998769930602627</v>
       </c>
     </row>
-    <row r="23" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:134" s="3" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -4952,7 +4961,7 @@
         <v>14.43291993761267</v>
       </c>
     </row>
-    <row r="24" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:134" s="3" customFormat="1">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -4999,7 +5008,7 @@
         <v>126.087789884988</v>
       </c>
     </row>
-    <row r="25" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:134" s="3" customFormat="1">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -5046,7 +5055,7 @@
         <v>132.41435796773939</v>
       </c>
     </row>
-    <row r="26" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:134" s="3" customFormat="1">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -5156,7 +5165,7 @@
         <v>-16.578002880498421</v>
       </c>
     </row>
-    <row r="27" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:134" s="3" customFormat="1">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -5245,7 +5254,7 @@
         <v>42.54003899762894</v>
       </c>
     </row>
-    <row r="28" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:134" s="3" customFormat="1">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -5259,7 +5268,7 @@
         <v>-46.833015669152267</v>
       </c>
     </row>
-    <row r="29" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:134" s="3" customFormat="1">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -5348,7 +5357,7 @@
         <v>13.094882062090241</v>
       </c>
     </row>
-    <row r="30" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:134" s="3" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
@@ -5437,7 +5446,7 @@
         <v>76.835984537427919</v>
       </c>
     </row>
-    <row r="31" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:134" s="3" customFormat="1">
       <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
@@ -5505,7 +5514,7 @@
         <v>-75.155348519394835</v>
       </c>
     </row>
-    <row r="32" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:134" s="3" customFormat="1">
       <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
@@ -5594,7 +5603,7 @@
         <v>44.65326263882109</v>
       </c>
     </row>
-    <row r="33" spans="1:134" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:134" s="3" customFormat="1">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
